--- a/GunfireDungeon_Godot/excel/ActivityBase.xlsx
+++ b/GunfireDungeon_Godot/excel/ActivityBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17380"/>
+    <workbookView windowWidth="28290" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="268">
   <si>
     <t>Id</t>
   </si>
@@ -857,297 +857,6 @@
   </si>
   <si>
     <t>res://resource/sprite/ui/commonIcon/Gold_1.png</t>
-  </si>
-  <si>
-    <t>item_0001</t>
-  </si>
-  <si>
-    <t>电脑桌</t>
-  </si>
-  <si>
-    <t>res://prefab/item/Item0001.tscn</t>
-  </si>
-  <si>
-    <t>item_0002</t>
-  </si>
-  <si>
-    <t>res://prefab/item/Item0002.tscn</t>
-  </si>
-  <si>
-    <t>item_0003</t>
-  </si>
-  <si>
-    <t>挡板</t>
-  </si>
-  <si>
-    <t>res://prefab/item/Item0003.tscn</t>
-  </si>
-  <si>
-    <t>res://resource/sprite/item/hall_b/item-32.png</t>
-  </si>
-  <si>
-    <t>item_0004</t>
-  </si>
-  <si>
-    <t>res://prefab/item/Item0004.tscn</t>
-  </si>
-  <si>
-    <t>item_0005</t>
-  </si>
-  <si>
-    <t>保险箱</t>
-  </si>
-  <si>
-    <t>res://prefab/item/Item0005.tscn</t>
-  </si>
-  <si>
-    <t>res://resource/sprite/item/hall_b/item-01.png</t>
-  </si>
-  <si>
-    <t>item_0006</t>
-  </si>
-  <si>
-    <t>电视桌</t>
-  </si>
-  <si>
-    <t>res://prefab/item/Item0006.tscn</t>
-  </si>
-  <si>
-    <t>item_0007</t>
-  </si>
-  <si>
-    <t>酒柜</t>
-  </si>
-  <si>
-    <t>res://prefab/item/Item0007.tscn</t>
-  </si>
-  <si>
-    <t>item_0008</t>
-  </si>
-  <si>
-    <t>沙发旁柜子</t>
-  </si>
-  <si>
-    <t>res://prefab/item/Item0008.tscn</t>
-  </si>
-  <si>
-    <t>item_0009</t>
-  </si>
-  <si>
-    <t>吧台</t>
-  </si>
-  <si>
-    <t>res://prefab/item/Item0009.tscn</t>
-  </si>
-  <si>
-    <t>item_0010</t>
-  </si>
-  <si>
-    <t>告示牌</t>
-  </si>
-  <si>
-    <t>res://prefab/item/Item0010.tscn</t>
-  </si>
-  <si>
-    <t>item_0011</t>
-  </si>
-  <si>
-    <t>绿木凳</t>
-  </si>
-  <si>
-    <t>res://prefab/item/Item0011.tscn</t>
-  </si>
-  <si>
-    <t>item_0012</t>
-  </si>
-  <si>
-    <t>沙发竖</t>
-  </si>
-  <si>
-    <t>res://prefab/item/Item0012.tscn</t>
-  </si>
-  <si>
-    <t>item_0013</t>
-  </si>
-  <si>
-    <t>沙发横着</t>
-  </si>
-  <si>
-    <t>res://prefab/item/Item0013.tscn</t>
-  </si>
-  <si>
-    <t>item_0014</t>
-  </si>
-  <si>
-    <t>懒人沙发</t>
-  </si>
-  <si>
-    <t>res://prefab/item/Item0014.tscn</t>
-  </si>
-  <si>
-    <t>item_0015</t>
-  </si>
-  <si>
-    <t>左下角桌子</t>
-  </si>
-  <si>
-    <t>res://prefab/item/Item0015.tscn</t>
-  </si>
-  <si>
-    <t>item_0016</t>
-  </si>
-  <si>
-    <t>左下角短沙发</t>
-  </si>
-  <si>
-    <t>res://prefab/item/Item0016.tscn</t>
-  </si>
-  <si>
-    <t>item_0017</t>
-  </si>
-  <si>
-    <t>中间桌子</t>
-  </si>
-  <si>
-    <t>res://prefab/item/Item0017.tscn</t>
-  </si>
-  <si>
-    <t>item_0018</t>
-  </si>
-  <si>
-    <t>左下角长沙发</t>
-  </si>
-  <si>
-    <t>res://prefab/item/Item0018.tscn</t>
-  </si>
-  <si>
-    <t>item_0019</t>
-  </si>
-  <si>
-    <t>右下角桌子</t>
-  </si>
-  <si>
-    <t>res://prefab/item/Item0019.tscn</t>
-  </si>
-  <si>
-    <t>item_0020</t>
-  </si>
-  <si>
-    <t>转椅</t>
-  </si>
-  <si>
-    <t>res://prefab/item/Item0020.tscn</t>
-  </si>
-  <si>
-    <t>res://resource/sprite/item/hall_a/Slice_42.png</t>
-  </si>
-  <si>
-    <t>item_0021</t>
-  </si>
-  <si>
-    <t>右下角长沙发</t>
-  </si>
-  <si>
-    <t>res://prefab/item/Item0021.tscn</t>
-  </si>
-  <si>
-    <t>item_0022</t>
-  </si>
-  <si>
-    <t>衣架</t>
-  </si>
-  <si>
-    <t>res://prefab/item/Item0022.tscn</t>
-  </si>
-  <si>
-    <t>item_0023</t>
-  </si>
-  <si>
-    <t>绿植</t>
-  </si>
-  <si>
-    <t>res://prefab/item/Item0023.tscn</t>
-  </si>
-  <si>
-    <t>res://resource/sprite/item/hall_a/Slice_40.png</t>
-  </si>
-  <si>
-    <t>item_0024</t>
-  </si>
-  <si>
-    <t>新手教学关卡</t>
-  </si>
-  <si>
-    <t>res://prefab/item/Item0024.tscn</t>
-  </si>
-  <si>
-    <t>item_0025</t>
-  </si>
-  <si>
-    <t>茂盛花盆</t>
-  </si>
-  <si>
-    <t>res://prefab/item/Item0025.tscn</t>
-  </si>
-  <si>
-    <t>item_0026</t>
-  </si>
-  <si>
-    <t>告示版</t>
-  </si>
-  <si>
-    <t>res://prefab/item/Item0026.tscn</t>
-  </si>
-  <si>
-    <t>item_0031</t>
-  </si>
-  <si>
-    <t>台灯</t>
-  </si>
-  <si>
-    <t>res://prefab/item/Item0031.tscn</t>
-  </si>
-  <si>
-    <t>item_0033</t>
-  </si>
-  <si>
-    <t>res://prefab/item/Item0033.tscn</t>
-  </si>
-  <si>
-    <t>item_0036</t>
-  </si>
-  <si>
-    <t>台球桌</t>
-  </si>
-  <si>
-    <t>res://prefab/item/Item0036.tscn</t>
-  </si>
-  <si>
-    <t>item_0054</t>
-  </si>
-  <si>
-    <t>贩卖机</t>
-  </si>
-  <si>
-    <t>res://prefab/item/Item0054.tscn</t>
-  </si>
-  <si>
-    <t>item_0056</t>
-  </si>
-  <si>
-    <t>长凳子</t>
-  </si>
-  <si>
-    <t>res://prefab/item/Item0056.tscn</t>
-  </si>
-  <si>
-    <t>item_0057</t>
-  </si>
-  <si>
-    <t>卡带盒子</t>
-  </si>
-  <si>
-    <t>res://prefab/item/Item0057.tscn</t>
   </si>
 </sst>
 </file>
@@ -2149,25 +1858,25 @@
   <dimension ref="A1:L127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="G54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H57" sqref="H57"/>
+      <selection pane="bottomRight" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="22.4230769230769" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.4326923076923" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5961538461538" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.425" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.4333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6" style="1" customWidth="1"/>
     <col min="4" max="5" width="27.375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="35.5576923076923" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.8173076923077" style="1" customWidth="1"/>
+    <col min="6" max="7" width="35.5583333333333" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.8166666666667" style="1" customWidth="1"/>
     <col min="9" max="9" width="22.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="63.3653846153846" style="3" customWidth="1"/>
-    <col min="11" max="11" width="61.9134615384615" customWidth="1"/>
-    <col min="12" max="12" width="32.4230769230769" customWidth="1"/>
+    <col min="10" max="10" width="63.3666666666667" style="3" customWidth="1"/>
+    <col min="11" max="11" width="61.9166666666667" customWidth="1"/>
+    <col min="12" max="12" width="32.425" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:12">
@@ -2809,7 +2518,7 @@
       </c>
     </row>
     <row r="31" ht="39" customHeight="1"/>
-    <row r="32" ht="17" spans="1:10">
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
         <v>104</v>
       </c>
@@ -2826,7 +2535,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" ht="17" spans="1:10">
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
         <v>107</v>
       </c>
@@ -2843,7 +2552,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" customFormat="1" ht="17" spans="1:10">
+    <row r="34" customFormat="1" spans="1:10">
       <c r="A34" s="1" t="s">
         <v>109</v>
       </c>
@@ -2865,7 +2574,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" customFormat="1" ht="17" spans="1:10">
+    <row r="35" customFormat="1" spans="1:10">
       <c r="A35" s="1" t="s">
         <v>111</v>
       </c>
@@ -2889,7 +2598,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="36" customFormat="1" ht="17" spans="1:10">
+    <row r="36" customFormat="1" spans="1:10">
       <c r="A36" s="1" t="s">
         <v>115</v>
       </c>
@@ -2913,7 +2622,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="37" customFormat="1" ht="17" spans="1:10">
+    <row r="37" customFormat="1" spans="1:10">
       <c r="A37" s="1" t="s">
         <v>119</v>
       </c>
@@ -2937,7 +2646,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" customFormat="1" ht="17" spans="1:10">
+    <row r="38" customFormat="1" spans="1:10">
       <c r="A38" s="1" t="s">
         <v>122</v>
       </c>
@@ -2959,7 +2668,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="39" customFormat="1" ht="17" spans="1:10">
+    <row r="39" customFormat="1" spans="1:10">
       <c r="A39" s="1" t="s">
         <v>124</v>
       </c>
@@ -2981,7 +2690,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="40" customFormat="1" ht="17" spans="1:10">
+    <row r="40" customFormat="1" spans="1:10">
       <c r="A40" s="1" t="s">
         <v>126</v>
       </c>
@@ -3015,7 +2724,7 @@
       <c r="I41" s="4"/>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" customFormat="1" ht="17" spans="1:10">
+    <row r="42" customFormat="1" spans="1:10">
       <c r="A42" s="1" t="s">
         <v>129</v>
       </c>
@@ -3049,7 +2758,7 @@
       <c r="I43" s="4"/>
       <c r="J43" s="3"/>
     </row>
-    <row r="44" ht="17" spans="1:10">
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
         <v>132</v>
       </c>
@@ -3066,7 +2775,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="47" customFormat="1" ht="17" spans="1:10">
+    <row r="47" customFormat="1" spans="1:10">
       <c r="A47" s="1" t="s">
         <v>135</v>
       </c>
@@ -3088,7 +2797,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="48" customFormat="1" ht="17" spans="1:10">
+    <row r="48" customFormat="1" spans="1:10">
       <c r="A48" s="1" t="s">
         <v>138</v>
       </c>
@@ -3110,7 +2819,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" ht="17" spans="1:10">
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
         <v>140</v>
       </c>
@@ -3127,7 +2836,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="50" customFormat="1" ht="17" spans="1:10">
+    <row r="50" customFormat="1" spans="1:10">
       <c r="A50" s="1" t="s">
         <v>142</v>
       </c>
@@ -3149,7 +2858,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="54" ht="17" spans="1:10">
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
         <v>144</v>
       </c>
@@ -3166,7 +2875,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="55" customFormat="1" ht="17" spans="1:10">
+    <row r="55" customFormat="1" spans="1:10">
       <c r="A55" s="1" t="s">
         <v>147</v>
       </c>
@@ -3188,7 +2897,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="57" ht="17" spans="1:12">
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
         <v>150</v>
       </c>
@@ -3220,7 +2929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" customFormat="1" ht="17" spans="1:12">
+    <row r="58" customFormat="1" spans="1:12">
       <c r="A58" s="1" t="s">
         <v>156</v>
       </c>
@@ -3252,7 +2961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" customFormat="1" ht="17" spans="1:12">
+    <row r="59" customFormat="1" spans="1:12">
       <c r="A59" s="1" t="s">
         <v>160</v>
       </c>
@@ -3284,7 +2993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" customFormat="1" ht="17" spans="1:12">
+    <row r="60" customFormat="1" spans="1:12">
       <c r="A60" s="1" t="s">
         <v>164</v>
       </c>
@@ -3316,7 +3025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" customFormat="1" ht="17" spans="1:12">
+    <row r="61" customFormat="1" spans="1:12">
       <c r="A61" s="1" t="s">
         <v>168</v>
       </c>
@@ -3348,7 +3057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" customFormat="1" ht="17" spans="1:12">
+    <row r="62" customFormat="1" spans="1:12">
       <c r="A62" s="1" t="s">
         <v>172</v>
       </c>
@@ -3380,7 +3089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" customFormat="1" ht="17" spans="1:12">
+    <row r="63" customFormat="1" spans="1:12">
       <c r="A63" s="1" t="s">
         <v>176</v>
       </c>
@@ -3412,7 +3121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" customFormat="1" ht="17" spans="1:12">
+    <row r="64" customFormat="1" spans="1:12">
       <c r="A64" s="1" t="s">
         <v>180</v>
       </c>
@@ -3444,7 +3153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" customFormat="1" ht="17" spans="1:12">
+    <row r="65" customFormat="1" spans="1:12">
       <c r="A65" s="1" t="s">
         <v>184</v>
       </c>
@@ -3476,7 +3185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" customFormat="1" ht="34" spans="1:12">
+    <row r="66" customFormat="1" ht="27" spans="1:12">
       <c r="A66" s="1" t="s">
         <v>188</v>
       </c>
@@ -3508,7 +3217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" customFormat="1" ht="17" spans="1:12">
+    <row r="67" customFormat="1" spans="1:12">
       <c r="A67" s="1" t="s">
         <v>192</v>
       </c>
@@ -3540,7 +3249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" customFormat="1" ht="17" spans="1:12">
+    <row r="68" customFormat="1" spans="1:12">
       <c r="A68" s="1" t="s">
         <v>196</v>
       </c>
@@ -3572,7 +3281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" customFormat="1" ht="17" spans="1:12">
+    <row r="69" customFormat="1" spans="1:12">
       <c r="A69" s="1" t="s">
         <v>200</v>
       </c>
@@ -3604,7 +3313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" customFormat="1" ht="17" spans="1:12">
+    <row r="70" customFormat="1" spans="1:12">
       <c r="A70" s="1" t="s">
         <v>204</v>
       </c>
@@ -3675,7 +3384,7 @@
       <c r="J73" s="3"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="75" customFormat="1" ht="17" spans="1:12">
+    <row r="75" customFormat="1" spans="1:12">
       <c r="A75" s="1" t="s">
         <v>208</v>
       </c>
@@ -3707,7 +3416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" customFormat="1" ht="17" spans="1:12">
+    <row r="76" customFormat="1" spans="1:12">
       <c r="A76" s="1" t="s">
         <v>213</v>
       </c>
@@ -3739,7 +3448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" customFormat="1" ht="51" spans="1:12">
+    <row r="77" customFormat="1" ht="40.5" spans="1:12">
       <c r="A77" s="1" t="s">
         <v>217</v>
       </c>
@@ -3771,7 +3480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" customFormat="1" ht="17" spans="1:12">
+    <row r="78" customFormat="1" spans="1:12">
       <c r="A78" s="1" t="s">
         <v>221</v>
       </c>
@@ -3803,7 +3512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" customFormat="1" ht="34" spans="1:12">
+    <row r="79" customFormat="1" ht="27" spans="1:12">
       <c r="A79" s="1" t="s">
         <v>225</v>
       </c>
@@ -3835,7 +3544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" customFormat="1" ht="17" spans="1:12">
+    <row r="80" customFormat="1" spans="1:12">
       <c r="A80" s="1" t="s">
         <v>229</v>
       </c>
@@ -3867,7 +3576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" customFormat="1" ht="17" spans="1:12">
+    <row r="81" customFormat="1" spans="1:12">
       <c r="A81" s="1" t="s">
         <v>233</v>
       </c>
@@ -3925,7 +3634,7 @@
       <c r="J83" s="3"/>
       <c r="L83" s="2"/>
     </row>
-    <row r="84" ht="17" spans="1:12">
+    <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
         <v>237</v>
       </c>
@@ -3964,7 +3673,7 @@
       <c r="J85" s="3"/>
       <c r="L85" s="2"/>
     </row>
-    <row r="87" ht="17" spans="1:10">
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
         <v>241</v>
       </c>
@@ -3981,7 +3690,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="88" ht="17" spans="1:10">
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
         <v>244</v>
       </c>
@@ -3998,7 +3707,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="89" ht="17" spans="1:10">
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
         <v>247</v>
       </c>
@@ -4015,7 +3724,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="90" ht="17" spans="1:10">
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
         <v>250</v>
       </c>
@@ -4032,7 +3741,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="92" ht="17" spans="1:12">
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
         <v>253</v>
       </c>
@@ -4054,11 +3763,8 @@
       <c r="K92" t="s">
         <v>257</v>
       </c>
-      <c r="L92" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" ht="17" spans="1:12">
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
         <v>258</v>
       </c>
@@ -4080,11 +3786,8 @@
       <c r="K93" t="s">
         <v>262</v>
       </c>
-      <c r="L93" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" ht="17" spans="1:12">
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
         <v>263</v>
       </c>
@@ -4106,716 +3809,378 @@
       <c r="K94" t="s">
         <v>267</v>
       </c>
-      <c r="L94" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" customFormat="1" ht="17" spans="1:10">
-      <c r="A96" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C96" s="1">
-        <v>99</v>
-      </c>
+    </row>
+    <row r="96" customFormat="1" spans="1:10">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
-      <c r="H96" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-      <c r="J96" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="97" customFormat="1" ht="17" spans="1:10">
-      <c r="A97" s="1" t="s">
-        <v>271</v>
-      </c>
+      <c r="J96" s="3"/>
+    </row>
+    <row r="97" customFormat="1" spans="1:10">
+      <c r="A97" s="1"/>
       <c r="B97" s="1"/>
-      <c r="C97" s="1">
-        <v>99</v>
-      </c>
+      <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
-      <c r="H97" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="H97" s="1"/>
       <c r="I97" s="1"/>
-      <c r="J97" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="98" customFormat="1" ht="17" spans="1:11">
-      <c r="A98" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C98" s="1">
-        <v>99</v>
-      </c>
+      <c r="J97" s="3"/>
+    </row>
+    <row r="98" customFormat="1" spans="1:10">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
-      <c r="H98" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-      <c r="J98" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="K98" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="99" customFormat="1" ht="17" spans="1:10">
-      <c r="A99" s="1" t="s">
-        <v>277</v>
-      </c>
+      <c r="J98" s="3"/>
+    </row>
+    <row r="99" customFormat="1" spans="1:10">
+      <c r="A99" s="1"/>
       <c r="B99" s="1"/>
-      <c r="C99" s="1">
-        <v>99</v>
-      </c>
+      <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
-      <c r="H99" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="H99" s="1"/>
       <c r="I99" s="1"/>
-      <c r="J99" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="100" customFormat="1" ht="17" spans="1:11">
-      <c r="A100" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C100" s="1">
-        <v>99</v>
-      </c>
+      <c r="J99" s="3"/>
+    </row>
+    <row r="100" customFormat="1" spans="1:10">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
-      <c r="H100" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="H100" s="1"/>
       <c r="I100" s="1"/>
-      <c r="J100" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="K100" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="101" customFormat="1" ht="17" spans="1:10">
-      <c r="A101" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C101" s="1">
-        <v>99</v>
-      </c>
+      <c r="J100" s="3"/>
+    </row>
+    <row r="101" customFormat="1" spans="1:10">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
-      <c r="H101" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="H101" s="1"/>
       <c r="I101" s="1"/>
-      <c r="J101" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="102" customFormat="1" ht="17" spans="1:10">
-      <c r="A102" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C102" s="1">
-        <v>99</v>
-      </c>
+      <c r="J101" s="3"/>
+    </row>
+    <row r="102" customFormat="1" spans="1:10">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
-      <c r="H102" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="H102" s="1"/>
       <c r="I102" s="1"/>
-      <c r="J102" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="103" customFormat="1" ht="17" spans="1:10">
-      <c r="A103" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C103" s="1">
-        <v>99</v>
-      </c>
+      <c r="J102" s="3"/>
+    </row>
+    <row r="103" customFormat="1" spans="1:10">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
-      <c r="H103" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="H103" s="1"/>
       <c r="I103" s="1"/>
-      <c r="J103" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="104" customFormat="1" ht="17" spans="1:10">
-      <c r="A104" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="C104" s="5">
-        <v>99</v>
-      </c>
+      <c r="J103" s="3"/>
+    </row>
+    <row r="104" customFormat="1" spans="1:10">
+      <c r="A104" s="5"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
-      <c r="H104" s="5" t="b">
-        <v>1</v>
-      </c>
+      <c r="H104" s="5"/>
       <c r="I104" s="5"/>
-      <c r="J104" s="8" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="105" customFormat="1" ht="17" spans="1:10">
-      <c r="A105" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="B105" t="s">
-        <v>296</v>
-      </c>
-      <c r="C105" s="5">
-        <v>99</v>
-      </c>
+      <c r="J104" s="8"/>
+    </row>
+    <row r="105" customFormat="1" spans="1:10">
+      <c r="A105" s="5"/>
+      <c r="B105"/>
+      <c r="C105" s="5"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
-      <c r="H105" s="5" t="b">
-        <v>1</v>
-      </c>
+      <c r="H105" s="5"/>
       <c r="I105" s="5"/>
-      <c r="J105" s="8" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="106" customFormat="1" ht="17" spans="1:10">
-      <c r="A106" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="B106" t="s">
-        <v>299</v>
-      </c>
-      <c r="C106" s="5">
-        <v>99</v>
-      </c>
+      <c r="J105" s="8"/>
+    </row>
+    <row r="106" customFormat="1" spans="1:10">
+      <c r="A106" s="5"/>
+      <c r="B106"/>
+      <c r="C106" s="5"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
-      <c r="H106" s="5" t="b">
-        <v>1</v>
-      </c>
+      <c r="H106" s="5"/>
       <c r="I106" s="5"/>
-      <c r="J106" s="8" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="107" ht="17" spans="1:10">
-      <c r="A107" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C107" s="1">
-        <v>99</v>
-      </c>
-      <c r="H107" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J107" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="108" customFormat="1" ht="17" spans="1:10">
-      <c r="A108" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C108" s="1">
-        <v>99</v>
-      </c>
+      <c r="J106" s="8"/>
+    </row>
+    <row r="108" customFormat="1" spans="1:10">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
-      <c r="H108" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="H108" s="1"/>
       <c r="I108" s="1"/>
-      <c r="J108" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="109" customFormat="1" ht="17" spans="1:10">
-      <c r="A109" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C109" s="1">
-        <v>99</v>
-      </c>
+      <c r="J108" s="3"/>
+    </row>
+    <row r="109" customFormat="1" spans="1:10">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
-      <c r="H109" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="H109" s="1"/>
       <c r="I109" s="1"/>
-      <c r="J109" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="110" customFormat="1" ht="17" spans="1:10">
-      <c r="A110" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B110" t="s">
-        <v>311</v>
-      </c>
-      <c r="C110" s="1">
-        <v>99</v>
-      </c>
+      <c r="J109" s="3"/>
+    </row>
+    <row r="110" customFormat="1" spans="1:10">
+      <c r="A110" s="1"/>
+      <c r="B110"/>
+      <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
-      <c r="H110" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="H110" s="1"/>
       <c r="I110" s="1"/>
-      <c r="J110" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="111" customFormat="1" ht="17" spans="1:10">
-      <c r="A111" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B111" t="s">
-        <v>314</v>
-      </c>
-      <c r="C111" s="1">
-        <v>99</v>
-      </c>
+      <c r="J110" s="3"/>
+    </row>
+    <row r="111" customFormat="1" spans="1:10">
+      <c r="A111" s="1"/>
+      <c r="B111"/>
+      <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
-      <c r="H111" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="H111" s="1"/>
       <c r="I111" s="1"/>
-      <c r="J111" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="112" customFormat="1" ht="17" spans="1:10">
-      <c r="A112" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C112" s="1">
-        <v>99</v>
-      </c>
+      <c r="J111" s="3"/>
+    </row>
+    <row r="112" customFormat="1" spans="1:10">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
-      <c r="H112" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="H112" s="1"/>
       <c r="I112" s="1"/>
-      <c r="J112" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="113" customFormat="1" ht="17" spans="1:10">
-      <c r="A113" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B113" t="s">
-        <v>320</v>
-      </c>
-      <c r="C113" s="1">
-        <v>99</v>
-      </c>
+      <c r="J112" s="3"/>
+    </row>
+    <row r="113" customFormat="1" spans="1:10">
+      <c r="A113" s="1"/>
+      <c r="B113"/>
+      <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
-      <c r="H113" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="H113" s="1"/>
       <c r="I113" s="1"/>
-      <c r="J113" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="114" customFormat="1" ht="17" spans="1:10">
-      <c r="A114" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B114" t="s">
-        <v>323</v>
-      </c>
-      <c r="C114" s="1">
-        <v>99</v>
-      </c>
+      <c r="J113" s="3"/>
+    </row>
+    <row r="114" customFormat="1" spans="1:10">
+      <c r="A114" s="1"/>
+      <c r="B114"/>
+      <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
-      <c r="H114" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="H114" s="1"/>
       <c r="I114" s="1"/>
-      <c r="J114" s="3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="115" customFormat="1" ht="17" spans="1:11">
-      <c r="A115" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B115" t="s">
-        <v>326</v>
-      </c>
-      <c r="C115" s="1">
-        <v>99</v>
-      </c>
+      <c r="J114" s="3"/>
+    </row>
+    <row r="115" customFormat="1" spans="1:10">
+      <c r="A115" s="1"/>
+      <c r="B115"/>
+      <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
-      <c r="H115" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="H115" s="1"/>
       <c r="I115" s="1"/>
-      <c r="J115" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="K115" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="116" customFormat="1" ht="17" spans="1:10">
-      <c r="A116" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B116" t="s">
-        <v>330</v>
-      </c>
-      <c r="C116" s="1">
-        <v>99</v>
-      </c>
+      <c r="J115" s="3"/>
+    </row>
+    <row r="116" customFormat="1" spans="1:10">
+      <c r="A116" s="1"/>
+      <c r="B116"/>
+      <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
-      <c r="H116" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="H116" s="1"/>
       <c r="I116" s="1"/>
-      <c r="J116" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="117" customFormat="1" ht="17" spans="1:10">
-      <c r="A117" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B117" t="s">
-        <v>333</v>
-      </c>
-      <c r="C117" s="1">
-        <v>99</v>
-      </c>
+      <c r="J116" s="3"/>
+    </row>
+    <row r="117" customFormat="1" spans="1:10">
+      <c r="A117" s="1"/>
+      <c r="B117"/>
+      <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
-      <c r="H117" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="H117" s="1"/>
       <c r="I117" s="1"/>
-      <c r="J117" s="3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="118" customFormat="1" ht="17" spans="1:11">
-      <c r="A118" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="B118" t="s">
-        <v>336</v>
-      </c>
-      <c r="C118" s="1">
-        <v>99</v>
-      </c>
+      <c r="J117" s="3"/>
+    </row>
+    <row r="118" customFormat="1" spans="1:10">
+      <c r="A118" s="1"/>
+      <c r="B118"/>
+      <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
-      <c r="H118" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="H118" s="1"/>
       <c r="I118" s="1"/>
-      <c r="J118" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="K118" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="119" customFormat="1" ht="17" spans="1:10">
-      <c r="A119" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B119" t="s">
-        <v>340</v>
-      </c>
-      <c r="C119" s="1">
-        <v>99</v>
-      </c>
+      <c r="J118" s="3"/>
+    </row>
+    <row r="119" customFormat="1" spans="1:10">
+      <c r="A119" s="1"/>
+      <c r="B119"/>
+      <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
-      <c r="H119" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="H119" s="1"/>
       <c r="I119" s="1"/>
-      <c r="J119" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="120" customFormat="1" ht="17" spans="1:10">
-      <c r="A120" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B120" t="s">
-        <v>343</v>
-      </c>
-      <c r="C120" s="1">
-        <v>99</v>
-      </c>
+      <c r="J119" s="3"/>
+    </row>
+    <row r="120" customFormat="1" spans="1:10">
+      <c r="A120" s="1"/>
+      <c r="B120"/>
+      <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
-      <c r="H120" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="H120" s="1"/>
       <c r="I120" s="1"/>
-      <c r="J120" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="121" customFormat="1" ht="17" spans="1:10">
-      <c r="A121" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B121" t="s">
-        <v>346</v>
-      </c>
-      <c r="C121" s="1">
-        <v>99</v>
-      </c>
+      <c r="J120" s="3"/>
+    </row>
+    <row r="121" customFormat="1" spans="1:10">
+      <c r="A121" s="1"/>
+      <c r="B121"/>
+      <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
-      <c r="H121" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="H121" s="1"/>
       <c r="I121" s="1"/>
-      <c r="J121" s="3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="122" ht="17" spans="1:10">
-      <c r="A122" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="C122" s="5">
-        <v>99</v>
-      </c>
+      <c r="J121" s="3"/>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" s="5"/>
+      <c r="B122" s="6"/>
+      <c r="C122" s="5"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
-      <c r="H122" s="5" t="b">
-        <v>1</v>
-      </c>
+      <c r="H122" s="5"/>
       <c r="I122" s="5"/>
-      <c r="J122" s="8" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="123" customFormat="1" ht="17" spans="1:10">
-      <c r="A123" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="C123" s="5">
-        <v>99</v>
-      </c>
+      <c r="J122" s="8"/>
+    </row>
+    <row r="123" customFormat="1" spans="1:10">
+      <c r="A123" s="5"/>
+      <c r="B123" s="6"/>
+      <c r="C123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
-      <c r="H123" s="5" t="b">
-        <v>1</v>
-      </c>
+      <c r="H123" s="5"/>
       <c r="I123" s="5"/>
-      <c r="J123" s="8" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="124" customFormat="1" ht="17" spans="1:10">
-      <c r="A124" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="C124" s="5">
-        <v>99</v>
-      </c>
+      <c r="J123" s="8"/>
+    </row>
+    <row r="124" customFormat="1" spans="1:10">
+      <c r="A124" s="5"/>
+      <c r="B124" s="6"/>
+      <c r="C124" s="5"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
-      <c r="H124" s="5" t="b">
-        <v>1</v>
-      </c>
+      <c r="H124" s="5"/>
       <c r="I124" s="5"/>
-      <c r="J124" s="8" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="125" customFormat="1" ht="17" spans="1:10">
-      <c r="A125" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="B125" t="s">
-        <v>357</v>
-      </c>
-      <c r="C125" s="5">
-        <v>99</v>
-      </c>
+      <c r="J124" s="8"/>
+    </row>
+    <row r="125" customFormat="1" spans="1:10">
+      <c r="A125" s="5"/>
+      <c r="B125"/>
+      <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
-      <c r="H125" s="5" t="b">
-        <v>1</v>
-      </c>
+      <c r="H125" s="5"/>
       <c r="I125" s="5"/>
-      <c r="J125" s="8" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="126" customFormat="1" ht="17" spans="1:10">
-      <c r="A126" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="B126" t="s">
-        <v>360</v>
-      </c>
-      <c r="C126" s="5">
-        <v>99</v>
-      </c>
+      <c r="J125" s="8"/>
+    </row>
+    <row r="126" customFormat="1" spans="1:10">
+      <c r="A126" s="5"/>
+      <c r="B126"/>
+      <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
-      <c r="H126" s="5" t="b">
-        <v>1</v>
-      </c>
+      <c r="H126" s="5"/>
       <c r="I126" s="5"/>
-      <c r="J126" s="8" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="127" ht="17" spans="1:10">
-      <c r="A127" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="C127" s="5">
-        <v>99</v>
-      </c>
+      <c r="J126" s="8"/>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" s="5"/>
+      <c r="B127" s="6"/>
+      <c r="C127" s="5"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
-      <c r="H127" s="5" t="b">
-        <v>1</v>
-      </c>
+      <c r="H127" s="5"/>
       <c r="I127" s="5"/>
-      <c r="J127" s="8" t="s">
-        <v>364</v>
-      </c>
+      <c r="J127" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4833,7 +4198,7 @@
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4850,7 +4215,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/GunfireDungeon_Godot/excel/ActivityBase.xlsx
+++ b/GunfireDungeon_Godot/excel/ActivityBase.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="267">
   <si>
     <t>Id</t>
   </si>
@@ -167,9 +167,6 @@
   </si>
   <si>
     <t>res://resource/sprite/role/enemy0001/enemy0001_Icon.png</t>
-  </si>
-  <si>
-    <t>enemy0002</t>
   </si>
   <si>
     <t>敌人2</t>
@@ -1858,11 +1855,11 @@
   <dimension ref="A1:L127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A32" sqref="A32"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2051,27 +2048,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="28" customHeight="1" spans="1:12">
-      <c r="A8" s="1" t="s">
+    <row r="8" ht="28" customHeight="1" spans="2:12">
+      <c r="B8" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C8" s="1">
         <v>4</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" t="s">
         <v>40</v>
-      </c>
-      <c r="K8" t="s">
-        <v>41</v>
       </c>
       <c r="L8" s="2" t="b">
         <v>1</v>
@@ -2095,25 +2089,25 @@
     </row>
     <row r="13" ht="28" customHeight="1" spans="1:12">
       <c r="A13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="C13" s="1">
         <v>12</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="L13" s="2" t="b">
         <v>1</v>
@@ -2125,25 +2119,25 @@
     </row>
     <row r="15" ht="28" customHeight="1" spans="1:12">
       <c r="A15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="C15" s="1">
         <v>11</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" t="s">
         <v>47</v>
-      </c>
-      <c r="K15" t="s">
-        <v>48</v>
       </c>
       <c r="L15" s="2" t="b">
         <v>1</v>
@@ -2155,10 +2149,10 @@
     </row>
     <row r="17" ht="24" customHeight="1" spans="1:12">
       <c r="A17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="C17" s="1">
         <v>5</v>
@@ -2170,10 +2164,10 @@
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17" t="s">
         <v>51</v>
-      </c>
-      <c r="K17" t="s">
-        <v>52</v>
       </c>
       <c r="L17" s="2" t="b">
         <v>1</v>
@@ -2181,10 +2175,10 @@
     </row>
     <row r="18" ht="24" customHeight="1" spans="1:12">
       <c r="A18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="C18" s="1">
         <v>5</v>
@@ -2196,10 +2190,10 @@
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K18" t="s">
         <v>55</v>
-      </c>
-      <c r="K18" t="s">
-        <v>56</v>
       </c>
       <c r="L18" s="2" t="b">
         <v>1</v>
@@ -2207,10 +2201,10 @@
     </row>
     <row r="19" ht="24" customHeight="1" spans="1:12">
       <c r="A19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="C19" s="1">
         <v>5</v>
@@ -2222,10 +2216,10 @@
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K19" t="s">
         <v>59</v>
-      </c>
-      <c r="K19" t="s">
-        <v>60</v>
       </c>
       <c r="L19" s="2" t="b">
         <v>1</v>
@@ -2233,10 +2227,10 @@
     </row>
     <row r="20" ht="24" customHeight="1" spans="1:12">
       <c r="A20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="C20" s="1">
         <v>5</v>
@@ -2248,10 +2242,10 @@
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K20" t="s">
         <v>63</v>
-      </c>
-      <c r="K20" t="s">
-        <v>64</v>
       </c>
       <c r="L20" s="2" t="b">
         <v>1</v>
@@ -2259,10 +2253,10 @@
     </row>
     <row r="21" ht="24" customHeight="1" spans="1:12">
       <c r="A21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="C21" s="1">
         <v>5</v>
@@ -2274,10 +2268,10 @@
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K21" t="s">
         <v>67</v>
-      </c>
-      <c r="K21" t="s">
-        <v>68</v>
       </c>
       <c r="L21" s="2" t="b">
         <v>1</v>
@@ -2285,10 +2279,10 @@
     </row>
     <row r="22" ht="24" customHeight="1" spans="1:12">
       <c r="A22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="C22" s="1">
         <v>5</v>
@@ -2300,10 +2294,10 @@
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K22" t="s">
         <v>71</v>
-      </c>
-      <c r="K22" t="s">
-        <v>72</v>
       </c>
       <c r="L22" s="2" t="b">
         <v>1</v>
@@ -2311,10 +2305,10 @@
     </row>
     <row r="23" ht="24" customHeight="1" spans="1:12">
       <c r="A23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="C23" s="1">
         <v>5</v>
@@ -2326,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K23" t="s">
         <v>75</v>
-      </c>
-      <c r="K23" t="s">
-        <v>76</v>
       </c>
       <c r="L23" s="2" t="b">
         <v>1</v>
@@ -2337,10 +2331,10 @@
     </row>
     <row r="24" ht="24" customHeight="1" spans="1:12">
       <c r="A24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="C24" s="1">
         <v>5</v>
@@ -2352,10 +2346,10 @@
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K24" t="s">
         <v>79</v>
-      </c>
-      <c r="K24" t="s">
-        <v>80</v>
       </c>
       <c r="L24" s="2" t="b">
         <v>1</v>
@@ -2363,10 +2357,10 @@
     </row>
     <row r="25" ht="24" customHeight="1" spans="1:12">
       <c r="A25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="C25" s="1">
         <v>5</v>
@@ -2378,10 +2372,10 @@
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K25" t="s">
         <v>83</v>
-      </c>
-      <c r="K25" t="s">
-        <v>84</v>
       </c>
       <c r="L25" s="2" t="b">
         <v>1</v>
@@ -2389,10 +2383,10 @@
     </row>
     <row r="26" ht="24" customHeight="1" spans="1:12">
       <c r="A26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="C26" s="1">
         <v>5</v>
@@ -2404,10 +2398,10 @@
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K26" t="s">
         <v>87</v>
-      </c>
-      <c r="K26" t="s">
-        <v>88</v>
       </c>
       <c r="L26" s="2" t="b">
         <v>1</v>
@@ -2415,10 +2409,10 @@
     </row>
     <row r="27" ht="24" customHeight="1" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C27" s="1">
         <v>5</v>
@@ -2430,10 +2424,10 @@
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K27" t="s">
         <v>90</v>
-      </c>
-      <c r="K27" t="s">
-        <v>91</v>
       </c>
       <c r="L27" s="2" t="b">
         <v>1</v>
@@ -2441,10 +2435,10 @@
     </row>
     <row r="28" ht="24" customHeight="1" spans="1:12">
       <c r="A28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="C28" s="1">
         <v>5</v>
@@ -2456,10 +2450,10 @@
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K28" t="s">
         <v>94</v>
-      </c>
-      <c r="K28" t="s">
-        <v>95</v>
       </c>
       <c r="L28" s="2" t="b">
         <v>1</v>
@@ -2467,10 +2461,10 @@
     </row>
     <row r="29" ht="24" customHeight="1" spans="1:12">
       <c r="A29" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="C29" s="1">
         <v>5</v>
@@ -2482,10 +2476,10 @@
         <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K29" t="s">
         <v>98</v>
-      </c>
-      <c r="K29" t="s">
-        <v>99</v>
       </c>
       <c r="L29" s="2" t="b">
         <v>1</v>
@@ -2493,10 +2487,10 @@
     </row>
     <row r="30" ht="24" customHeight="1" spans="1:12">
       <c r="A30" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="C30" s="1">
         <v>5</v>
@@ -2508,10 +2502,10 @@
         <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K30" t="s">
         <v>102</v>
-      </c>
-      <c r="K30" t="s">
-        <v>103</v>
       </c>
       <c r="L30" s="2" t="b">
         <v>1</v>
@@ -2520,7 +2514,7 @@
     <row r="31" ht="39" customHeight="1"/>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C32" s="1">
         <v>6</v>
@@ -2529,15 +2523,15 @@
         <v>0</v>
       </c>
       <c r="I32" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J32" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C33" s="1">
         <v>6</v>
@@ -2546,15 +2540,15 @@
         <v>0</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1">
@@ -2568,18 +2562,18 @@
         <v>0</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" customFormat="1" spans="1:10">
       <c r="A35" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="C35" s="1">
         <v>6</v>
@@ -2592,18 +2586,18 @@
         <v>0</v>
       </c>
       <c r="I35" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J35" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="36" customFormat="1" spans="1:10">
       <c r="A36" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="C36" s="1">
         <v>6</v>
@@ -2616,18 +2610,18 @@
         <v>0</v>
       </c>
       <c r="I36" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J36" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="1:10">
       <c r="A37" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="C37" s="1">
         <v>6</v>
@@ -2640,15 +2634,15 @@
         <v>0</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" customFormat="1" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1">
@@ -2662,15 +2656,15 @@
         <v>0</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" customFormat="1" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1">
@@ -2684,18 +2678,18 @@
         <v>0</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" customFormat="1" spans="1:10">
       <c r="A40" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="C40" s="1">
         <v>6</v>
@@ -2709,7 +2703,7 @@
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" customFormat="1" spans="1:10">
@@ -2726,10 +2720,10 @@
     </row>
     <row r="42" customFormat="1" spans="1:10">
       <c r="A42" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="C42" s="1">
         <v>99</v>
@@ -2743,7 +2737,7 @@
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" customFormat="1" spans="1:10">
@@ -2760,10 +2754,10 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="C44" s="1">
         <v>99</v>
@@ -2772,12 +2766,12 @@
         <v>0</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" customFormat="1" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1">
@@ -2791,15 +2785,15 @@
         <v>0</v>
       </c>
       <c r="I47" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="J47" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="48" customFormat="1" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1">
@@ -2813,15 +2807,15 @@
         <v>0</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C49" s="1">
         <v>7</v>
@@ -2830,15 +2824,15 @@
         <v>0</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" customFormat="1" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1">
@@ -2852,32 +2846,32 @@
         <v>0</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C54" s="1">
         <v>8</v>
       </c>
       <c r="F54" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H54" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="H54" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="55" customFormat="1" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1">
@@ -2886,7 +2880,7 @@
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="1" t="b">
@@ -2894,15 +2888,15 @@
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="C57" s="1">
         <v>9</v>
@@ -2911,19 +2905,19 @@
         <v>4</v>
       </c>
       <c r="F57" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="H57" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="H57" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3" t="s">
+      <c r="K57" t="s">
         <v>154</v>
-      </c>
-      <c r="K57" t="s">
-        <v>155</v>
       </c>
       <c r="L57" s="2" t="b">
         <v>1</v>
@@ -2931,10 +2925,10 @@
     </row>
     <row r="58" customFormat="1" spans="1:12">
       <c r="A58" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="C58" s="1">
         <v>9</v>
@@ -2944,7 +2938,7 @@
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="1" t="b">
@@ -2952,10 +2946,10 @@
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L58" s="2" t="b">
         <v>1</v>
@@ -2963,10 +2957,10 @@
     </row>
     <row r="59" customFormat="1" spans="1:12">
       <c r="A59" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="C59" s="1">
         <v>9</v>
@@ -2976,7 +2970,7 @@
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="1" t="b">
@@ -2984,10 +2978,10 @@
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K59" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L59" s="2" t="b">
         <v>1</v>
@@ -2995,10 +2989,10 @@
     </row>
     <row r="60" customFormat="1" spans="1:12">
       <c r="A60" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="C60" s="1">
         <v>9</v>
@@ -3008,7 +3002,7 @@
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="1" t="b">
@@ -3016,10 +3010,10 @@
       </c>
       <c r="I60" s="1"/>
       <c r="J60" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K60" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L60" s="2" t="b">
         <v>1</v>
@@ -3027,10 +3021,10 @@
     </row>
     <row r="61" customFormat="1" spans="1:12">
       <c r="A61" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="C61" s="1">
         <v>9</v>
@@ -3040,7 +3034,7 @@
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="1" t="b">
@@ -3048,10 +3042,10 @@
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K61" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L61" s="2" t="b">
         <v>1</v>
@@ -3059,10 +3053,10 @@
     </row>
     <row r="62" customFormat="1" spans="1:12">
       <c r="A62" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="C62" s="1">
         <v>9</v>
@@ -3072,7 +3066,7 @@
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="1" t="b">
@@ -3080,10 +3074,10 @@
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K62" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L62" s="2" t="b">
         <v>1</v>
@@ -3091,10 +3085,10 @@
     </row>
     <row r="63" customFormat="1" spans="1:12">
       <c r="A63" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="C63" s="1">
         <v>9</v>
@@ -3104,7 +3098,7 @@
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="1" t="b">
@@ -3112,10 +3106,10 @@
       </c>
       <c r="I63" s="1"/>
       <c r="J63" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K63" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L63" s="2" t="b">
         <v>1</v>
@@ -3123,10 +3117,10 @@
     </row>
     <row r="64" customFormat="1" spans="1:12">
       <c r="A64" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="C64" s="1">
         <v>9</v>
@@ -3136,7 +3130,7 @@
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="1" t="b">
@@ -3144,10 +3138,10 @@
       </c>
       <c r="I64" s="1"/>
       <c r="J64" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K64" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L64" s="2" t="b">
         <v>1</v>
@@ -3155,10 +3149,10 @@
     </row>
     <row r="65" customFormat="1" spans="1:12">
       <c r="A65" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="C65" s="1">
         <v>9</v>
@@ -3168,7 +3162,7 @@
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="1" t="b">
@@ -3176,10 +3170,10 @@
       </c>
       <c r="I65" s="1"/>
       <c r="J65" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K65" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L65" s="2" t="b">
         <v>1</v>
@@ -3187,10 +3181,10 @@
     </row>
     <row r="66" customFormat="1" ht="27" spans="1:12">
       <c r="A66" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="C66" s="1">
         <v>9</v>
@@ -3200,7 +3194,7 @@
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="1" t="b">
@@ -3208,10 +3202,10 @@
       </c>
       <c r="I66" s="1"/>
       <c r="J66" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K66" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L66" s="2" t="b">
         <v>1</v>
@@ -3219,10 +3213,10 @@
     </row>
     <row r="67" customFormat="1" spans="1:12">
       <c r="A67" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="C67" s="1">
         <v>9</v>
@@ -3232,7 +3226,7 @@
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="1" t="b">
@@ -3240,10 +3234,10 @@
       </c>
       <c r="I67" s="1"/>
       <c r="J67" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K67" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L67" s="2" t="b">
         <v>1</v>
@@ -3251,10 +3245,10 @@
     </row>
     <row r="68" customFormat="1" spans="1:12">
       <c r="A68" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="C68" s="1">
         <v>9</v>
@@ -3264,7 +3258,7 @@
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="1" t="b">
@@ -3272,10 +3266,10 @@
       </c>
       <c r="I68" s="1"/>
       <c r="J68" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K68" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L68" s="2" t="b">
         <v>1</v>
@@ -3283,10 +3277,10 @@
     </row>
     <row r="69" customFormat="1" spans="1:12">
       <c r="A69" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="C69" s="1">
         <v>9</v>
@@ -3296,7 +3290,7 @@
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="1" t="b">
@@ -3304,10 +3298,10 @@
       </c>
       <c r="I69" s="1"/>
       <c r="J69" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K69" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L69" s="2" t="b">
         <v>1</v>
@@ -3315,10 +3309,10 @@
     </row>
     <row r="70" customFormat="1" spans="1:12">
       <c r="A70" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="C70" s="1">
         <v>9</v>
@@ -3328,7 +3322,7 @@
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="1" t="b">
@@ -3336,10 +3330,10 @@
       </c>
       <c r="I70" s="1"/>
       <c r="J70" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K70" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L70" s="2" t="b">
         <v>1</v>
@@ -3386,10 +3380,10 @@
     </row>
     <row r="75" customFormat="1" spans="1:12">
       <c r="A75" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="C75" s="1">
         <v>9</v>
@@ -3399,7 +3393,7 @@
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G75" s="2"/>
       <c r="H75" s="1" t="b">
@@ -3407,10 +3401,10 @@
       </c>
       <c r="I75" s="1"/>
       <c r="J75" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="K75" t="s">
         <v>211</v>
-      </c>
-      <c r="K75" t="s">
-        <v>212</v>
       </c>
       <c r="L75" s="2" t="b">
         <v>1</v>
@@ -3418,10 +3412,10 @@
     </row>
     <row r="76" customFormat="1" spans="1:12">
       <c r="A76" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="C76" s="1">
         <v>9</v>
@@ -3431,7 +3425,7 @@
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G76" s="2"/>
       <c r="H76" s="1" t="b">
@@ -3439,10 +3433,10 @@
       </c>
       <c r="I76" s="1"/>
       <c r="J76" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K76" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L76" s="2" t="b">
         <v>1</v>
@@ -3450,10 +3444,10 @@
     </row>
     <row r="77" customFormat="1" ht="40.5" spans="1:12">
       <c r="A77" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="C77" s="1">
         <v>9</v>
@@ -3463,7 +3457,7 @@
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G77" s="2"/>
       <c r="H77" s="1" t="b">
@@ -3471,10 +3465,10 @@
       </c>
       <c r="I77" s="1"/>
       <c r="J77" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K77" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L77" s="2" t="b">
         <v>1</v>
@@ -3482,10 +3476,10 @@
     </row>
     <row r="78" customFormat="1" spans="1:12">
       <c r="A78" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="C78" s="1">
         <v>9</v>
@@ -3495,7 +3489,7 @@
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="1" t="b">
@@ -3503,10 +3497,10 @@
       </c>
       <c r="I78" s="1"/>
       <c r="J78" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K78" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L78" s="2" t="b">
         <v>1</v>
@@ -3514,10 +3508,10 @@
     </row>
     <row r="79" customFormat="1" ht="27" spans="1:12">
       <c r="A79" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>226</v>
       </c>
       <c r="C79" s="1">
         <v>9</v>
@@ -3527,7 +3521,7 @@
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="1" t="b">
@@ -3535,10 +3529,10 @@
       </c>
       <c r="I79" s="1"/>
       <c r="J79" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K79" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L79" s="2" t="b">
         <v>1</v>
@@ -3546,10 +3540,10 @@
     </row>
     <row r="80" customFormat="1" spans="1:12">
       <c r="A80" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>230</v>
       </c>
       <c r="C80" s="1">
         <v>9</v>
@@ -3559,7 +3553,7 @@
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="1" t="b">
@@ -3567,10 +3561,10 @@
       </c>
       <c r="I80" s="1"/>
       <c r="J80" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K80" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L80" s="2" t="b">
         <v>1</v>
@@ -3578,10 +3572,10 @@
     </row>
     <row r="81" customFormat="1" spans="1:12">
       <c r="A81" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="C81" s="1">
         <v>9</v>
@@ -3591,7 +3585,7 @@
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="1" t="b">
@@ -3599,10 +3593,10 @@
       </c>
       <c r="I81" s="1"/>
       <c r="J81" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K81" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L81" s="2" t="b">
         <v>1</v>
@@ -3636,25 +3630,25 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="C84" s="1">
         <v>10</v>
       </c>
       <c r="F84" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H84" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J84" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="H84" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J84" s="3" t="s">
+      <c r="K84" t="s">
         <v>239</v>
-      </c>
-      <c r="K84" t="s">
-        <v>240</v>
       </c>
       <c r="L84" t="b">
         <v>1</v>
@@ -3675,236 +3669,140 @@
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C87" s="1">
         <v>99</v>
       </c>
       <c r="F87" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H87" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J87" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="H87" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J87" s="3" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C88" s="1">
         <v>99</v>
       </c>
       <c r="F88" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="H88" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J88" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="H88" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J88" s="3" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C89" s="1">
         <v>99</v>
       </c>
       <c r="F89" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H89" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J89" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="H89" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C90" s="1">
         <v>99</v>
       </c>
       <c r="F90" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="H90" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J90" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="H90" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J90" s="3" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="C92" s="1">
         <v>99</v>
       </c>
       <c r="F92" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H92" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J92" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="H92" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J92" s="3" t="s">
+      <c r="K92" t="s">
         <v>256</v>
-      </c>
-      <c r="K92" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="C93" s="1">
         <v>99</v>
       </c>
       <c r="F93" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="H93" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J93" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="H93" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J93" s="3" t="s">
+      <c r="K93" t="s">
         <v>261</v>
-      </c>
-      <c r="K93" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="C94" s="1">
         <v>99</v>
       </c>
       <c r="F94" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H94" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="H94" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3" t="s">
+      <c r="K94" t="s">
         <v>266</v>
       </c>
-      <c r="K94" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="96" customFormat="1" spans="1:10">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-      <c r="J96" s="3"/>
-    </row>
-    <row r="97" customFormat="1" spans="1:10">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="3"/>
-    </row>
-    <row r="98" customFormat="1" spans="1:10">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="3"/>
-    </row>
-    <row r="99" customFormat="1" spans="1:10">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="3"/>
-    </row>
-    <row r="100" customFormat="1" spans="1:10">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="3"/>
-    </row>
-    <row r="101" customFormat="1" spans="1:10">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="3"/>
-    </row>
-    <row r="102" customFormat="1" spans="1:10">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-      <c r="J102" s="3"/>
-    </row>
-    <row r="103" customFormat="1" spans="1:10">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-      <c r="J103" s="3"/>
     </row>
     <row r="104" customFormat="1" spans="1:10">
       <c r="A104" s="5"/>
@@ -3942,30 +3840,6 @@
       <c r="I106" s="5"/>
       <c r="J106" s="8"/>
     </row>
-    <row r="108" customFormat="1" spans="1:10">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
-      <c r="J108" s="3"/>
-    </row>
-    <row r="109" customFormat="1" spans="1:10">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="2"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
-      <c r="J109" s="3"/>
-    </row>
     <row r="110" customFormat="1" spans="1:10">
       <c r="A110" s="1"/>
       <c r="B110"/>
@@ -3989,18 +3863,6 @@
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
       <c r="J111" s="3"/>
-    </row>
-    <row r="112" customFormat="1" spans="1:10">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
-      <c r="J112" s="3"/>
     </row>
     <row r="113" customFormat="1" spans="1:10">
       <c r="A113" s="1"/>

--- a/GunfireDungeon_Godot/excel/ActivityBase.xlsx
+++ b/GunfireDungeon_Godot/excel/ActivityBase.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="234">
   <si>
     <t>Id</t>
   </si>
@@ -199,9 +199,6 @@
     <t>res://resource/sprite/role/shopBoss0001/ShopBoss0001.png</t>
   </si>
   <si>
-    <t>weapon0001</t>
-  </si>
-  <si>
     <t>步枪</t>
   </si>
   <si>
@@ -211,9 +208,6 @@
     <t>res://resource/sprite/weapon/weapon0001/Weapon0001.png</t>
   </si>
   <si>
-    <t>weapon0002</t>
-  </si>
-  <si>
     <t>霰弹枪</t>
   </si>
   <si>
@@ -235,9 +229,6 @@
     <t>res://resource/sprite/weapon/weapon0003/Weapon0003.png</t>
   </si>
   <si>
-    <t>weapon0004</t>
-  </si>
-  <si>
     <t>刀</t>
   </si>
   <si>
@@ -247,9 +238,6 @@
     <t>res://resource/sprite/weapon/weapon0004/Weapon0004.png</t>
   </si>
   <si>
-    <t>weapon0005</t>
-  </si>
-  <si>
     <t>狙击枪</t>
   </si>
   <si>
@@ -259,9 +247,6 @@
     <t>res://resource/sprite/weapon/weapon0005/Weapon0005.png</t>
   </si>
   <si>
-    <t>weapon0006</t>
-  </si>
-  <si>
     <t>冲锋枪</t>
   </si>
   <si>
@@ -271,9 +256,6 @@
     <t>res://resource/sprite/weapon/weapon0006/Weapon0006.png</t>
   </si>
   <si>
-    <t>weapon0007</t>
-  </si>
-  <si>
     <t>汤姆逊冲锋枪</t>
   </si>
   <si>
@@ -283,9 +265,6 @@
     <t>res://resource/sprite/weapon/weapon0007/Weapon0007.png</t>
   </si>
   <si>
-    <t>weapon0008</t>
-  </si>
-  <si>
     <t>激光手枪</t>
   </si>
   <si>
@@ -295,9 +274,6 @@
     <t>res://resource/sprite/weapon/weapon0008/Weapon0008.png</t>
   </si>
   <si>
-    <t>weapon0009</t>
-  </si>
-  <si>
     <t>榴弹发射器</t>
   </si>
   <si>
@@ -307,9 +283,6 @@
     <t>res://resource/sprite/weapon/weapon0009/weapon0009.png</t>
   </si>
   <si>
-    <t>weapon0010</t>
-  </si>
-  <si>
     <t>M1型热能狙击枪</t>
   </si>
   <si>
@@ -328,9 +301,6 @@
     <t>res://resource/sprite/weapon/weapon0011/Weapon0011.png</t>
   </si>
   <si>
-    <t>weapon0013</t>
-  </si>
-  <si>
     <t>P90</t>
   </si>
   <si>
@@ -340,9 +310,6 @@
     <t>res://resource/sprite/weapon/weapon0013/Weapon0013.png</t>
   </si>
   <si>
-    <t>weapon0014</t>
-  </si>
-  <si>
     <t>左轮</t>
   </si>
   <si>
@@ -352,9 +319,6 @@
     <t>res://resource/sprite/weapon/weapon0014/Weapon0014.png</t>
   </si>
   <si>
-    <t>weapon0016</t>
-  </si>
-  <si>
     <t>木质短弓</t>
   </si>
   <si>
@@ -502,10 +466,7 @@
     <t>res://prefab/effect/enemy/EnemyDead0002.tscn</t>
   </si>
   <si>
-    <t>prop0001</t>
-  </si>
-  <si>
-    <t>鞋子</t>
+    <t>鞋子-prop0001</t>
   </si>
   <si>
     <t>提高移动速度</t>
@@ -520,9 +481,6 @@
     <t>res://resource/sprite/prop/buff/BuffProp0001.png</t>
   </si>
   <si>
-    <t>prop0002</t>
-  </si>
-  <si>
     <t>心之容器</t>
   </si>
   <si>
@@ -532,9 +490,6 @@
     <t>res://resource/sprite/prop/buff/BuffProp0002.png</t>
   </si>
   <si>
-    <t>prop0003</t>
-  </si>
-  <si>
     <t>护盾</t>
   </si>
   <si>
@@ -544,9 +499,6 @@
     <t>res://resource/sprite/prop/buff/BuffProp0003.png</t>
   </si>
   <si>
-    <t>prop0004</t>
-  </si>
-  <si>
     <t>护盾计时器</t>
   </si>
   <si>
@@ -556,9 +508,6 @@
     <t>res://resource/sprite/prop/buff/BuffProp0004.png</t>
   </si>
   <si>
-    <t>prop0005</t>
-  </si>
-  <si>
     <t>杀伤弹</t>
   </si>
   <si>
@@ -568,9 +517,6 @@
     <t>res://resource/sprite/prop/buff/BuffProp0005.png</t>
   </si>
   <si>
-    <t>prop0006</t>
-  </si>
-  <si>
     <t>红宝石戒指</t>
   </si>
   <si>
@@ -580,9 +526,6 @@
     <t>res://resource/sprite/prop/buff/BuffProp0006.png</t>
   </si>
   <si>
-    <t>prop0007</t>
-  </si>
-  <si>
     <t>备用护盾</t>
   </si>
   <si>
@@ -592,9 +535,6 @@
     <t>res://resource/sprite/prop/buff/BuffProp0007.png</t>
   </si>
   <si>
-    <t>prop0008</t>
-  </si>
-  <si>
     <t>眼镜</t>
   </si>
   <si>
@@ -604,9 +544,6 @@
     <t>res://resource/sprite/prop/buff/BuffProp0008.png</t>
   </si>
   <si>
-    <t>prop0009</t>
-  </si>
-  <si>
     <t>高速子弹</t>
   </si>
   <si>
@@ -616,9 +553,6 @@
     <t>res://resource/sprite/prop/buff/BuffProp0009.png</t>
   </si>
   <si>
-    <t>prop0010</t>
-  </si>
-  <si>
     <t>分裂子弹</t>
   </si>
   <si>
@@ -628,9 +562,6 @@
     <t>res://resource/sprite/prop/buff/BuffProp0010.png</t>
   </si>
   <si>
-    <t>prop0011</t>
-  </si>
-  <si>
     <t>弹射子弹</t>
   </si>
   <si>
@@ -640,9 +571,6 @@
     <t>res://resource/sprite/prop/buff/BuffProp0011.png</t>
   </si>
   <si>
-    <t>prop0012</t>
-  </si>
-  <si>
     <t>穿透子弹</t>
   </si>
   <si>
@@ -652,9 +580,6 @@
     <t>res://resource/sprite/prop/buff/BuffProp0012.png</t>
   </si>
   <si>
-    <t>prop0013</t>
-  </si>
-  <si>
     <t>武器背包</t>
   </si>
   <si>
@@ -664,9 +589,6 @@
     <t>res://resource/sprite/prop/buff/BuffProp0013.png</t>
   </si>
   <si>
-    <t>prop0014</t>
-  </si>
-  <si>
     <t>道具背包</t>
   </si>
   <si>
@@ -676,10 +598,7 @@
     <t>res://resource/sprite/prop/buff/BuffProp0014.png</t>
   </si>
   <si>
-    <t>prop5000</t>
-  </si>
-  <si>
-    <t>医药箱</t>
+    <t>医药箱-prop5000</t>
   </si>
   <si>
     <t>使用后回复一颗红心</t>
@@ -691,9 +610,6 @@
     <t>res://resource/sprite/prop/active/ActiveProp5000.png</t>
   </si>
   <si>
-    <t>prop5001</t>
-  </si>
-  <si>
     <t>弹药箱</t>
   </si>
   <si>
@@ -703,9 +619,6 @@
     <t>res://resource/sprite/prop/active/ActiveProp5001.png</t>
   </si>
   <si>
-    <t>prop5002</t>
-  </si>
-  <si>
     <t>猪猪存钱罐</t>
   </si>
   <si>
@@ -715,9 +628,6 @@
     <t>res://resource/sprite/prop/active/ActiveProp5002.png</t>
   </si>
   <si>
-    <t>prop5003</t>
-  </si>
-  <si>
     <t>红外遥控器</t>
   </si>
   <si>
@@ -727,9 +637,6 @@
     <t>res://resource/sprite/prop/active/ActiveProp5003.png</t>
   </si>
   <si>
-    <t>prop5004</t>
-  </si>
-  <si>
     <t>魔术棒</t>
   </si>
   <si>
@@ -739,9 +646,6 @@
     <t>res://resource/sprite/prop/active/ActiveProp5004.png</t>
   </si>
   <si>
-    <t>prop5005</t>
-  </si>
-  <si>
     <t>便携式供血器</t>
   </si>
   <si>
@@ -749,9 +653,6 @@
   </si>
   <si>
     <t>res://resource/sprite/prop/active/ActiveProp5005.png</t>
-  </si>
-  <si>
-    <t>prop5006</t>
   </si>
   <si>
     <t>便携式献血器</t>
@@ -1855,11 +1756,11 @@
   <dimension ref="A1:L127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C54" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2147,12 +2048,9 @@
       <c r="J16" s="1"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" ht="24" customHeight="1" spans="1:12">
-      <c r="A17" s="1" t="s">
+    <row r="17" ht="24" customHeight="1" spans="2:12">
+      <c r="B17" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="C17" s="1">
         <v>5</v>
@@ -2164,21 +2062,18 @@
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" t="s">
         <v>50</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="24" customHeight="1" spans="2:12">
+      <c r="B18" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="L17" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" ht="24" customHeight="1" spans="1:12">
-      <c r="A18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="C18" s="1">
         <v>5</v>
@@ -2190,10 +2085,10 @@
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L18" s="2" t="b">
         <v>1</v>
@@ -2201,10 +2096,10 @@
     </row>
     <row r="19" ht="24" customHeight="1" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C19" s="1">
         <v>5</v>
@@ -2216,21 +2111,18 @@
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19" t="s">
+        <v>57</v>
+      </c>
+      <c r="L19" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" ht="24" customHeight="1" spans="2:12">
+      <c r="B20" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="K19" t="s">
-        <v>59</v>
-      </c>
-      <c r="L19" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" ht="24" customHeight="1" spans="1:12">
-      <c r="A20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="C20" s="1">
         <v>5</v>
@@ -2242,21 +2134,18 @@
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L20" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="21" ht="24" customHeight="1" spans="1:12">
-      <c r="A21" s="1" t="s">
-        <v>64</v>
-      </c>
+    <row r="21" ht="24" customHeight="1" spans="2:12">
       <c r="B21" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C21" s="1">
         <v>5</v>
@@ -2268,21 +2157,18 @@
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K21" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L21" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="22" ht="24" customHeight="1" spans="1:12">
-      <c r="A22" s="1" t="s">
-        <v>68</v>
-      </c>
+    <row r="22" ht="24" customHeight="1" spans="2:12">
       <c r="B22" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C22" s="1">
         <v>5</v>
@@ -2294,21 +2180,18 @@
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K22" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="L22" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="23" ht="24" customHeight="1" spans="1:12">
-      <c r="A23" s="1" t="s">
-        <v>72</v>
-      </c>
+    <row r="23" ht="24" customHeight="1" spans="2:12">
       <c r="B23" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C23" s="1">
         <v>5</v>
@@ -2320,21 +2203,18 @@
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="K23" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="L23" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="24" ht="24" customHeight="1" spans="1:12">
-      <c r="A24" s="1" t="s">
-        <v>76</v>
-      </c>
+    <row r="24" ht="24" customHeight="1" spans="2:12">
       <c r="B24" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C24" s="1">
         <v>5</v>
@@ -2346,21 +2226,18 @@
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K24" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="L24" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="25" ht="24" customHeight="1" spans="1:12">
-      <c r="A25" s="1" t="s">
-        <v>80</v>
-      </c>
+    <row r="25" ht="24" customHeight="1" spans="2:12">
       <c r="B25" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C25" s="1">
         <v>5</v>
@@ -2372,21 +2249,18 @@
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="K25" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="L25" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="26" ht="24" customHeight="1" spans="1:12">
-      <c r="A26" s="1" t="s">
-        <v>84</v>
-      </c>
+    <row r="26" ht="24" customHeight="1" spans="2:12">
       <c r="B26" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C26" s="1">
         <v>5</v>
@@ -2398,21 +2272,18 @@
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="K26" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="L26" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="27" ht="24" customHeight="1" spans="1:12">
-      <c r="A27" s="1" t="s">
-        <v>88</v>
-      </c>
+    <row r="27" ht="24" customHeight="1" spans="2:12">
       <c r="B27" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C27" s="1">
         <v>5</v>
@@ -2424,21 +2295,18 @@
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K27" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="L27" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="28" ht="24" customHeight="1" spans="1:12">
-      <c r="A28" s="1" t="s">
-        <v>91</v>
-      </c>
+    <row r="28" ht="24" customHeight="1" spans="2:12">
       <c r="B28" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C28" s="1">
         <v>5</v>
@@ -2450,21 +2318,18 @@
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="K28" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="L28" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="29" ht="24" customHeight="1" spans="1:12">
-      <c r="A29" s="1" t="s">
-        <v>95</v>
-      </c>
+    <row r="29" ht="24" customHeight="1" spans="2:12">
       <c r="B29" s="1" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C29" s="1">
         <v>5</v>
@@ -2476,21 +2341,18 @@
         <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="K29" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="L29" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="30" ht="24" customHeight="1" spans="1:12">
-      <c r="A30" s="1" t="s">
-        <v>99</v>
-      </c>
+    <row r="30" ht="24" customHeight="1" spans="2:12">
       <c r="B30" s="1" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C30" s="1">
         <v>5</v>
@@ -2502,10 +2364,10 @@
         <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="L30" s="2" t="b">
         <v>1</v>
@@ -2514,7 +2376,7 @@
     <row r="31" ht="39" customHeight="1"/>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C32" s="1">
         <v>6</v>
@@ -2523,15 +2385,15 @@
         <v>0</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C33" s="1">
         <v>6</v>
@@ -2540,15 +2402,15 @@
         <v>0</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1">
@@ -2562,18 +2424,18 @@
         <v>0</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" customFormat="1" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C35" s="1">
         <v>6</v>
@@ -2586,18 +2448,18 @@
         <v>0</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" customFormat="1" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C36" s="1">
         <v>6</v>
@@ -2610,18 +2472,18 @@
         <v>0</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C37" s="1">
         <v>6</v>
@@ -2634,15 +2496,15 @@
         <v>0</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" customFormat="1" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1">
@@ -2656,15 +2518,15 @@
         <v>0</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" customFormat="1" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1">
@@ -2678,18 +2540,18 @@
         <v>0</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" customFormat="1" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C40" s="1">
         <v>6</v>
@@ -2703,7 +2565,7 @@
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="3" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" customFormat="1" spans="1:10">
@@ -2720,10 +2582,10 @@
     </row>
     <row r="42" customFormat="1" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C42" s="1">
         <v>99</v>
@@ -2737,7 +2599,7 @@
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="3" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" customFormat="1" spans="1:10">
@@ -2754,10 +2616,10 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C44" s="1">
         <v>99</v>
@@ -2766,12 +2628,12 @@
         <v>0</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" customFormat="1" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1">
@@ -2785,15 +2647,15 @@
         <v>0</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" customFormat="1" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1">
@@ -2807,15 +2669,15 @@
         <v>0</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C49" s="1">
         <v>7</v>
@@ -2824,15 +2686,15 @@
         <v>0</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" customFormat="1" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1">
@@ -2846,32 +2708,32 @@
         <v>0</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C54" s="1">
         <v>8</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="H54" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" customFormat="1" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1">
@@ -2880,7 +2742,7 @@
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="1" t="b">
@@ -2888,15 +2750,12 @@
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="A57" s="1" t="s">
-        <v>149</v>
-      </c>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12">
       <c r="B57" s="1" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C57" s="1">
         <v>9</v>
@@ -2905,30 +2764,28 @@
         <v>4</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="H57" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="K57" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="L57" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="58" customFormat="1" spans="1:12">
-      <c r="A58" s="1" t="s">
-        <v>155</v>
-      </c>
+      <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="C58" s="1">
         <v>9</v>
@@ -2938,7 +2795,7 @@
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="2" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="1" t="b">
@@ -2946,21 +2803,19 @@
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="3" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="K58" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="L58" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="59" customFormat="1" spans="1:12">
-      <c r="A59" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C59" s="1">
         <v>9</v>
@@ -2970,7 +2825,7 @@
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="2" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="1" t="b">
@@ -2978,21 +2833,19 @@
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="3" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="K59" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="L59" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="60" customFormat="1" spans="1:12">
-      <c r="A60" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="C60" s="1">
         <v>9</v>
@@ -3002,7 +2855,7 @@
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="2" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="1" t="b">
@@ -3010,21 +2863,19 @@
       </c>
       <c r="I60" s="1"/>
       <c r="J60" s="3" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="K60" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="L60" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="61" customFormat="1" spans="1:12">
-      <c r="A61" s="1" t="s">
-        <v>167</v>
-      </c>
+      <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="C61" s="1">
         <v>9</v>
@@ -3034,7 +2885,7 @@
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="2" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="1" t="b">
@@ -3042,21 +2893,19 @@
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="K61" t="s">
         <v>153</v>
       </c>
-      <c r="K61" t="s">
-        <v>170</v>
-      </c>
       <c r="L61" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="62" customFormat="1" spans="1:12">
-      <c r="A62" s="1" t="s">
-        <v>171</v>
-      </c>
+      <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C62" s="1">
         <v>9</v>
@@ -3066,7 +2915,7 @@
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="2" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="1" t="b">
@@ -3074,21 +2923,19 @@
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="3" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="K62" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="L62" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="63" customFormat="1" spans="1:12">
-      <c r="A63" s="1" t="s">
-        <v>175</v>
-      </c>
+      <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="C63" s="1">
         <v>9</v>
@@ -3098,7 +2945,7 @@
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="2" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="1" t="b">
@@ -3106,21 +2953,19 @@
       </c>
       <c r="I63" s="1"/>
       <c r="J63" s="3" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="K63" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="L63" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="64" customFormat="1" spans="1:12">
-      <c r="A64" s="1" t="s">
-        <v>179</v>
-      </c>
+      <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="C64" s="1">
         <v>9</v>
@@ -3130,7 +2975,7 @@
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="2" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="1" t="b">
@@ -3138,21 +2983,19 @@
       </c>
       <c r="I64" s="1"/>
       <c r="J64" s="3" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="K64" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="L64" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="65" customFormat="1" spans="1:12">
-      <c r="A65" s="1" t="s">
-        <v>183</v>
-      </c>
+      <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="C65" s="1">
         <v>9</v>
@@ -3162,7 +3005,7 @@
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="2" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="1" t="b">
@@ -3170,21 +3013,19 @@
       </c>
       <c r="I65" s="1"/>
       <c r="J65" s="3" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="K65" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="L65" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="66" customFormat="1" ht="27" spans="1:12">
-      <c r="A66" s="1" t="s">
-        <v>187</v>
-      </c>
+      <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="C66" s="1">
         <v>9</v>
@@ -3194,7 +3035,7 @@
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="2" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="1" t="b">
@@ -3202,21 +3043,19 @@
       </c>
       <c r="I66" s="1"/>
       <c r="J66" s="3" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="K66" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="L66" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="67" customFormat="1" spans="1:12">
-      <c r="A67" s="1" t="s">
-        <v>191</v>
-      </c>
+      <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="C67" s="1">
         <v>9</v>
@@ -3226,7 +3065,7 @@
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="2" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="1" t="b">
@@ -3234,21 +3073,19 @@
       </c>
       <c r="I67" s="1"/>
       <c r="J67" s="3" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="K67" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="L67" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="68" customFormat="1" spans="1:12">
-      <c r="A68" s="1" t="s">
-        <v>195</v>
-      </c>
+      <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="C68" s="1">
         <v>9</v>
@@ -3258,7 +3095,7 @@
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="2" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="1" t="b">
@@ -3266,21 +3103,19 @@
       </c>
       <c r="I68" s="1"/>
       <c r="J68" s="3" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="K68" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="L68" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="69" customFormat="1" spans="1:12">
-      <c r="A69" s="1" t="s">
-        <v>199</v>
-      </c>
+      <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="C69" s="1">
         <v>9</v>
@@ -3290,7 +3125,7 @@
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="1" t="b">
@@ -3298,21 +3133,19 @@
       </c>
       <c r="I69" s="1"/>
       <c r="J69" s="3" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="K69" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="L69" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="1" spans="1:12">
-      <c r="A70" s="1" t="s">
-        <v>203</v>
-      </c>
+      <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="C70" s="1">
         <v>9</v>
@@ -3322,7 +3155,7 @@
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="2" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="1" t="b">
@@ -3330,10 +3163,10 @@
       </c>
       <c r="I70" s="1"/>
       <c r="J70" s="3" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="K70" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="L70" s="2" t="b">
         <v>1</v>
@@ -3379,11 +3212,9 @@
       <c r="L73" s="2"/>
     </row>
     <row r="75" customFormat="1" spans="1:12">
-      <c r="A75" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="C75" s="1">
         <v>9</v>
@@ -3393,7 +3224,7 @@
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="2" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="G75" s="2"/>
       <c r="H75" s="1" t="b">
@@ -3401,21 +3232,19 @@
       </c>
       <c r="I75" s="1"/>
       <c r="J75" s="3" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="K75" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="L75" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="76" customFormat="1" spans="1:12">
-      <c r="A76" s="1" t="s">
-        <v>212</v>
-      </c>
+      <c r="A76" s="1"/>
       <c r="B76" s="1" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="C76" s="1">
         <v>9</v>
@@ -3425,7 +3254,7 @@
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="2" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="G76" s="2"/>
       <c r="H76" s="1" t="b">
@@ -3433,21 +3262,19 @@
       </c>
       <c r="I76" s="1"/>
       <c r="J76" s="3" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="K76" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="L76" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="77" customFormat="1" ht="40.5" spans="1:12">
-      <c r="A77" s="1" t="s">
-        <v>216</v>
-      </c>
+      <c r="A77" s="1"/>
       <c r="B77" s="1" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="C77" s="1">
         <v>9</v>
@@ -3457,7 +3284,7 @@
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="2" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="G77" s="2"/>
       <c r="H77" s="1" t="b">
@@ -3465,21 +3292,19 @@
       </c>
       <c r="I77" s="1"/>
       <c r="J77" s="3" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="K77" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="L77" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="78" customFormat="1" spans="1:12">
-      <c r="A78" s="1" t="s">
-        <v>220</v>
-      </c>
+      <c r="A78" s="1"/>
       <c r="B78" s="1" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="C78" s="1">
         <v>9</v>
@@ -3489,7 +3314,7 @@
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="2" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="1" t="b">
@@ -3497,21 +3322,19 @@
       </c>
       <c r="I78" s="1"/>
       <c r="J78" s="3" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="K78" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="L78" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="79" customFormat="1" ht="27" spans="1:12">
-      <c r="A79" s="1" t="s">
-        <v>224</v>
-      </c>
+      <c r="A79" s="1"/>
       <c r="B79" s="2" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="C79" s="1">
         <v>9</v>
@@ -3521,7 +3344,7 @@
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="2" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="1" t="b">
@@ -3529,21 +3352,19 @@
       </c>
       <c r="I79" s="1"/>
       <c r="J79" s="3" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="K79" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="L79" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="80" customFormat="1" spans="1:12">
-      <c r="A80" s="1" t="s">
-        <v>228</v>
-      </c>
+      <c r="A80" s="1"/>
       <c r="B80" s="2" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="C80" s="1">
         <v>9</v>
@@ -3553,7 +3374,7 @@
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="2" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="1" t="b">
@@ -3561,21 +3382,19 @@
       </c>
       <c r="I80" s="1"/>
       <c r="J80" s="3" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="K80" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="L80" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="81" customFormat="1" spans="1:12">
-      <c r="A81" s="1" t="s">
-        <v>232</v>
-      </c>
+      <c r="A81" s="1"/>
       <c r="B81" s="2" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="C81" s="1">
         <v>9</v>
@@ -3585,7 +3404,7 @@
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="2" t="s">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="1" t="b">
@@ -3593,10 +3412,10 @@
       </c>
       <c r="I81" s="1"/>
       <c r="J81" s="3" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="K81" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="L81" s="2" t="b">
         <v>1</v>
@@ -3630,25 +3449,25 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="C84" s="1">
         <v>10</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="H84" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="K84" t="s">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="L84" t="b">
         <v>1</v>
@@ -3669,139 +3488,139 @@
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="C87" s="1">
         <v>99</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="H87" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="C88" s="1">
         <v>99</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="H88" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="C89" s="1">
         <v>99</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
       <c r="H89" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="C90" s="1">
         <v>99</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="H90" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="C92" s="1">
         <v>99</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="H92" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="K92" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="C93" s="1">
         <v>99</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="H93" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="K93" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="C94" s="1">
         <v>99</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="H94" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="K94" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
     </row>
     <row r="104" customFormat="1" spans="1:10">

--- a/GunfireDungeon_Godot/excel/ActivityBase.xlsx
+++ b/GunfireDungeon_Godot/excel/ActivityBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28290" windowHeight="13050"/>
+    <workbookView windowWidth="28530" windowHeight="14235"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="237">
   <si>
     <t>Id</t>
   </si>
@@ -464,6 +464,15 @@
   </si>
   <si>
     <t>res://prefab/effect/enemy/EnemyDead0002.tscn</t>
+  </si>
+  <si>
+    <t>part_comm0001</t>
+  </si>
+  <si>
+    <t>通用零件物体</t>
+  </si>
+  <si>
+    <t>res://prefab/part/PartActivityObject.tscn</t>
   </si>
   <si>
     <t>鞋子-prop0001</t>
@@ -1753,14 +1762,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L127"/>
+  <dimension ref="A1:L130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="I39" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C70" sqref="C70"/>
+      <selection pane="bottomRight" activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2753,99 +2762,59 @@
         <v>136</v>
       </c>
     </row>
-    <row r="57" spans="2:12">
+    <row r="56" customFormat="1" spans="1:10">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="3"/>
+    </row>
+    <row r="57" customFormat="1" spans="1:10">
+      <c r="A57" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="B57" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C57" s="1">
         <v>9</v>
       </c>
       <c r="D57" s="1">
-        <v>4</v>
-      </c>
-      <c r="F57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="G57" s="2"/>
+      <c r="H57" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" s="1"/>
+      <c r="J57" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="H57" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3" t="s">
+    </row>
+    <row r="58" customFormat="1" spans="1:10">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="3"/>
+    </row>
+    <row r="60" spans="2:12">
+      <c r="B60" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="K57" t="s">
-        <v>141</v>
-      </c>
-      <c r="L57" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" customFormat="1" spans="1:12">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C58" s="1">
-        <v>9</v>
-      </c>
-      <c r="D58" s="1">
-        <v>3</v>
-      </c>
-      <c r="E58" s="1"/>
-      <c r="F58" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G58" s="2"/>
-      <c r="H58" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" s="1"/>
-      <c r="J58" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="K58" t="s">
-        <v>144</v>
-      </c>
-      <c r="L58" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" customFormat="1" spans="1:12">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C59" s="1">
-        <v>9</v>
-      </c>
-      <c r="D59" s="1">
-        <v>3</v>
-      </c>
-      <c r="E59" s="1"/>
-      <c r="F59" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G59" s="2"/>
-      <c r="H59" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" s="1"/>
-      <c r="J59" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="K59" t="s">
-        <v>147</v>
-      </c>
-      <c r="L59" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" customFormat="1" spans="1:12">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="C60" s="1">
         <v>9</v>
@@ -2853,20 +2822,20 @@
       <c r="D60" s="1">
         <v>4</v>
       </c>
-      <c r="E60" s="1"/>
       <c r="F60" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G60" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="H60" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I60" s="1"/>
       <c r="J60" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K60" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="L60" s="2" t="b">
         <v>1</v>
@@ -2875,17 +2844,17 @@
     <row r="61" customFormat="1" spans="1:12">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C61" s="1">
         <v>9</v>
       </c>
       <c r="D61" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="1" t="b">
@@ -2893,10 +2862,10 @@
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K61" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="L61" s="2" t="b">
         <v>1</v>
@@ -2905,17 +2874,17 @@
     <row r="62" customFormat="1" spans="1:12">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C62" s="1">
         <v>9</v>
       </c>
       <c r="D62" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="1" t="b">
@@ -2923,10 +2892,10 @@
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K62" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L62" s="2" t="b">
         <v>1</v>
@@ -2935,17 +2904,17 @@
     <row r="63" customFormat="1" spans="1:12">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C63" s="1">
         <v>9</v>
       </c>
       <c r="D63" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="1" t="b">
@@ -2953,10 +2922,10 @@
       </c>
       <c r="I63" s="1"/>
       <c r="J63" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K63" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="L63" s="2" t="b">
         <v>1</v>
@@ -2965,17 +2934,17 @@
     <row r="64" customFormat="1" spans="1:12">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C64" s="1">
         <v>9</v>
       </c>
       <c r="D64" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="1" t="b">
@@ -2983,10 +2952,10 @@
       </c>
       <c r="I64" s="1"/>
       <c r="J64" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K64" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="L64" s="2" t="b">
         <v>1</v>
@@ -2995,17 +2964,17 @@
     <row r="65" customFormat="1" spans="1:12">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C65" s="1">
         <v>9</v>
       </c>
       <c r="D65" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="1" t="b">
@@ -3013,29 +2982,29 @@
       </c>
       <c r="I65" s="1"/>
       <c r="J65" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K65" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="L65" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="66" customFormat="1" ht="27" spans="1:12">
+    <row r="66" customFormat="1" spans="1:12">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C66" s="1">
         <v>9</v>
       </c>
       <c r="D66" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="1" t="b">
@@ -3043,10 +3012,10 @@
       </c>
       <c r="I66" s="1"/>
       <c r="J66" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K66" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="L66" s="2" t="b">
         <v>1</v>
@@ -3055,17 +3024,17 @@
     <row r="67" customFormat="1" spans="1:12">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C67" s="1">
         <v>9</v>
       </c>
       <c r="D67" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="1" t="b">
@@ -3073,10 +3042,10 @@
       </c>
       <c r="I67" s="1"/>
       <c r="J67" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K67" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L67" s="2" t="b">
         <v>1</v>
@@ -3085,17 +3054,17 @@
     <row r="68" customFormat="1" spans="1:12">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C68" s="1">
         <v>9</v>
       </c>
       <c r="D68" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="1" t="b">
@@ -3103,29 +3072,29 @@
       </c>
       <c r="I68" s="1"/>
       <c r="J68" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K68" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="L68" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="69" customFormat="1" spans="1:12">
+    <row r="69" customFormat="1" ht="27" spans="1:12">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C69" s="1">
         <v>9</v>
       </c>
       <c r="D69" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="1" t="b">
@@ -3133,10 +3102,10 @@
       </c>
       <c r="I69" s="1"/>
       <c r="J69" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K69" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="L69" s="2" t="b">
         <v>1</v>
@@ -3145,17 +3114,17 @@
     <row r="70" customFormat="1" spans="1:12">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C70" s="1">
         <v>9</v>
       </c>
       <c r="D70" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="1" t="b">
@@ -3163,10 +3132,10 @@
       </c>
       <c r="I70" s="1"/>
       <c r="J70" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K70" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="L70" s="2" t="b">
         <v>1</v>
@@ -3174,137 +3143,137 @@
     </row>
     <row r="71" customFormat="1" spans="1:12">
       <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
+      <c r="B71" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C71" s="1">
+        <v>9</v>
+      </c>
+      <c r="D71" s="1">
+        <v>4</v>
+      </c>
       <c r="E71" s="1"/>
-      <c r="F71" s="2"/>
+      <c r="F71" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="G71" s="2"/>
-      <c r="H71" s="1"/>
+      <c r="H71" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="I71" s="1"/>
-      <c r="J71" s="3"/>
-      <c r="L71" s="2"/>
+      <c r="J71" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K71" t="s">
+        <v>177</v>
+      </c>
+      <c r="L71" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="72" customFormat="1" spans="1:12">
       <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
+      <c r="B72" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C72" s="1">
+        <v>9</v>
+      </c>
+      <c r="D72" s="1">
+        <v>2</v>
+      </c>
       <c r="E72" s="1"/>
-      <c r="F72" s="2"/>
+      <c r="F72" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="G72" s="2"/>
-      <c r="H72" s="1"/>
+      <c r="H72" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="I72" s="1"/>
-      <c r="J72" s="3"/>
-      <c r="L72" s="2"/>
+      <c r="J72" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K72" t="s">
+        <v>180</v>
+      </c>
+      <c r="L72" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" customFormat="1" spans="1:12">
       <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
+      <c r="B73" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C73" s="1">
+        <v>9</v>
+      </c>
+      <c r="D73" s="1">
+        <v>2</v>
+      </c>
       <c r="E73" s="1"/>
-      <c r="F73" s="2"/>
+      <c r="F73" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="G73" s="2"/>
-      <c r="H73" s="1"/>
+      <c r="H73" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="I73" s="1"/>
-      <c r="J73" s="3"/>
-      <c r="L73" s="2"/>
+      <c r="J73" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K73" t="s">
+        <v>183</v>
+      </c>
+      <c r="L73" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" customFormat="1" spans="1:12">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="3"/>
+      <c r="L74" s="2"/>
     </row>
     <row r="75" customFormat="1" spans="1:12">
       <c r="A75" s="1"/>
-      <c r="B75" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C75" s="1">
-        <v>9</v>
-      </c>
-      <c r="D75" s="1">
-        <v>1</v>
-      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="F75" s="2"/>
       <c r="G75" s="2"/>
-      <c r="H75" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-      <c r="J75" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="K75" t="s">
-        <v>184</v>
-      </c>
-      <c r="L75" s="2" t="b">
-        <v>1</v>
-      </c>
+      <c r="J75" s="3"/>
+      <c r="L75" s="2"/>
     </row>
     <row r="76" customFormat="1" spans="1:12">
       <c r="A76" s="1"/>
-      <c r="B76" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C76" s="1">
-        <v>9</v>
-      </c>
-      <c r="D76" s="1">
-        <v>1</v>
-      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="2" t="s">
-        <v>186</v>
-      </c>
+      <c r="F76" s="2"/>
       <c r="G76" s="2"/>
-      <c r="H76" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-      <c r="J76" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="K76" t="s">
-        <v>187</v>
-      </c>
-      <c r="L76" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" customFormat="1" ht="40.5" spans="1:12">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C77" s="1">
-        <v>9</v>
-      </c>
-      <c r="D77" s="1">
-        <v>1</v>
-      </c>
-      <c r="E77" s="1"/>
-      <c r="F77" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="G77" s="2"/>
-      <c r="H77" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" s="1"/>
-      <c r="J77" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="K77" t="s">
-        <v>190</v>
-      </c>
-      <c r="L77" s="2" t="b">
-        <v>1</v>
-      </c>
+      <c r="J76" s="3"/>
+      <c r="L76" s="2"/>
     </row>
     <row r="78" customFormat="1" spans="1:12">
       <c r="A78" s="1"/>
       <c r="B78" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C78" s="1">
         <v>9</v>
@@ -3314,7 +3283,7 @@
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="1" t="b">
@@ -3322,19 +3291,19 @@
       </c>
       <c r="I78" s="1"/>
       <c r="J78" s="3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K78" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="L78" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="79" customFormat="1" ht="27" spans="1:12">
+    <row r="79" customFormat="1" spans="1:12">
       <c r="A79" s="1"/>
-      <c r="B79" s="2" t="s">
-        <v>194</v>
+      <c r="B79" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="C79" s="1">
         <v>9</v>
@@ -3344,7 +3313,7 @@
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="1" t="b">
@@ -3352,19 +3321,19 @@
       </c>
       <c r="I79" s="1"/>
       <c r="J79" s="3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K79" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="L79" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="80" customFormat="1" spans="1:12">
+    <row r="80" customFormat="1" ht="40.5" spans="1:12">
       <c r="A80" s="1"/>
-      <c r="B80" s="2" t="s">
-        <v>197</v>
+      <c r="B80" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="C80" s="1">
         <v>9</v>
@@ -3374,7 +3343,7 @@
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="1" t="b">
@@ -3382,10 +3351,10 @@
       </c>
       <c r="I80" s="1"/>
       <c r="J80" s="3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K80" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="L80" s="2" t="b">
         <v>1</v>
@@ -3393,8 +3362,8 @@
     </row>
     <row r="81" customFormat="1" spans="1:12">
       <c r="A81" s="1"/>
-      <c r="B81" s="2" t="s">
-        <v>200</v>
+      <c r="B81" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="C81" s="1">
         <v>9</v>
@@ -3404,7 +3373,7 @@
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="1" t="b">
@@ -3412,64 +3381,102 @@
       </c>
       <c r="I81" s="1"/>
       <c r="J81" s="3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K81" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="L81" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="82" customFormat="1" spans="1:12">
+    <row r="82" customFormat="1" ht="27" spans="1:12">
       <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
+      <c r="B82" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C82" s="1">
+        <v>9</v>
+      </c>
+      <c r="D82" s="1">
+        <v>1</v>
+      </c>
       <c r="E82" s="1"/>
-      <c r="F82" s="2"/>
+      <c r="F82" s="2" t="s">
+        <v>198</v>
+      </c>
       <c r="G82" s="2"/>
-      <c r="H82" s="1"/>
+      <c r="H82" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="I82" s="1"/>
-      <c r="J82" s="3"/>
-      <c r="L82" s="2"/>
+      <c r="J82" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="K82" t="s">
+        <v>199</v>
+      </c>
+      <c r="L82" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="83" customFormat="1" spans="1:12">
       <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
+      <c r="B83" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C83" s="1">
+        <v>9</v>
+      </c>
+      <c r="D83" s="1">
+        <v>1</v>
+      </c>
       <c r="E83" s="1"/>
-      <c r="F83" s="2"/>
+      <c r="F83" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="G83" s="2"/>
-      <c r="H83" s="1"/>
+      <c r="H83" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="I83" s="1"/>
-      <c r="J83" s="3"/>
-      <c r="L83" s="2"/>
-    </row>
-    <row r="84" spans="1:12">
-      <c r="A84" s="1" t="s">
+      <c r="J83" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="K83" t="s">
+        <v>202</v>
+      </c>
+      <c r="L83" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" customFormat="1" spans="1:12">
+      <c r="A84" s="1"/>
+      <c r="B84" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="C84" s="1">
-        <v>10</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D84" s="1">
+        <v>1</v>
+      </c>
+      <c r="E84" s="1"/>
       <c r="F84" s="2" t="s">
         <v>204</v>
       </c>
+      <c r="G84" s="2"/>
       <c r="H84" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="I84" s="1"/>
       <c r="J84" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="K84" t="s">
         <v>205</v>
       </c>
-      <c r="K84" t="s">
-        <v>206</v>
-      </c>
-      <c r="L84" t="b">
+      <c r="L84" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3486,202 +3493,230 @@
       <c r="J85" s="3"/>
       <c r="L85" s="2"/>
     </row>
-    <row r="87" spans="1:10">
+    <row r="86" customFormat="1" spans="1:12">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="3"/>
+      <c r="L86" s="2"/>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>207</v>
       </c>
       <c r="C87" s="1">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="F87" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H87" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J87" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="H87" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J87" s="3" t="s">
+      <c r="K87" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="88" spans="1:10">
-      <c r="A88" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C88" s="1">
-        <v>99</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="H88" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J88" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10">
-      <c r="A89" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C89" s="1">
-        <v>99</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H89" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>215</v>
-      </c>
+      <c r="L87" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" customFormat="1" spans="1:12">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="3"/>
+      <c r="L88" s="2"/>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C90" s="1">
         <v>99</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H90" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C91" s="1">
+        <v>99</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H91" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C92" s="1">
         <v>99</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H92" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="K92" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C93" s="1">
         <v>99</v>
       </c>
       <c r="F93" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H93" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C95" s="1">
+        <v>99</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H95" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K95" t="s">
         <v>226</v>
       </c>
-      <c r="H93" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J93" s="3" t="s">
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="K93" t="s">
+      <c r="B96" s="1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="94" spans="1:11">
-      <c r="A94" s="1" t="s">
+      <c r="C96" s="1">
+        <v>99</v>
+      </c>
+      <c r="F96" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="H96" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C94" s="1">
+      <c r="K96" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C97" s="1">
         <v>99</v>
       </c>
-      <c r="F94" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="H94" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="K94" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="104" customFormat="1" spans="1:10">
-      <c r="A104" s="5"/>
-      <c r="B104" s="6"/>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="7"/>
-      <c r="H104" s="5"/>
-      <c r="I104" s="5"/>
-      <c r="J104" s="8"/>
-    </row>
-    <row r="105" customFormat="1" spans="1:10">
-      <c r="A105" s="5"/>
-      <c r="B105"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="7"/>
-      <c r="H105" s="5"/>
-      <c r="I105" s="5"/>
-      <c r="J105" s="8"/>
-    </row>
-    <row r="106" customFormat="1" spans="1:10">
-      <c r="A106" s="5"/>
-      <c r="B106"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="7"/>
-      <c r="H106" s="5"/>
-      <c r="I106" s="5"/>
-      <c r="J106" s="8"/>
-    </row>
-    <row r="110" customFormat="1" spans="1:10">
-      <c r="A110" s="1"/>
-      <c r="B110"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="2"/>
-      <c r="G110" s="2"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
-      <c r="J110" s="3"/>
-    </row>
-    <row r="111" customFormat="1" spans="1:10">
-      <c r="A111" s="1"/>
-      <c r="B111"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="2"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
-      <c r="J111" s="3"/>
+      <c r="F97" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="H97" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="K97" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="107" customFormat="1" spans="1:10">
+      <c r="A107" s="5"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="8"/>
+    </row>
+    <row r="108" customFormat="1" spans="1:10">
+      <c r="A108" s="5"/>
+      <c r="B108"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="8"/>
+    </row>
+    <row r="109" customFormat="1" spans="1:10">
+      <c r="A109" s="5"/>
+      <c r="B109"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="8"/>
     </row>
     <row r="113" customFormat="1" spans="1:10">
       <c r="A113" s="1"/>
@@ -3707,18 +3742,6 @@
       <c r="I114" s="1"/>
       <c r="J114" s="3"/>
     </row>
-    <row r="115" customFormat="1" spans="1:10">
-      <c r="A115" s="1"/>
-      <c r="B115"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="2"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
-      <c r="J115" s="3"/>
-    </row>
     <row r="116" customFormat="1" spans="1:10">
       <c r="A116" s="1"/>
       <c r="B116"/>
@@ -3791,45 +3814,45 @@
       <c r="I121" s="1"/>
       <c r="J121" s="3"/>
     </row>
-    <row r="122" spans="1:10">
-      <c r="A122" s="5"/>
-      <c r="B122" s="6"/>
-      <c r="C122" s="5"/>
-      <c r="D122" s="5"/>
-      <c r="E122" s="5"/>
-      <c r="F122" s="7"/>
-      <c r="G122" s="7"/>
-      <c r="H122" s="5"/>
-      <c r="I122" s="5"/>
-      <c r="J122" s="8"/>
+    <row r="122" customFormat="1" spans="1:10">
+      <c r="A122" s="1"/>
+      <c r="B122"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="3"/>
     </row>
     <row r="123" customFormat="1" spans="1:10">
-      <c r="A123" s="5"/>
-      <c r="B123" s="6"/>
-      <c r="C123" s="5"/>
-      <c r="D123" s="5"/>
-      <c r="E123" s="5"/>
-      <c r="F123" s="7"/>
-      <c r="G123" s="7"/>
-      <c r="H123" s="5"/>
-      <c r="I123" s="5"/>
-      <c r="J123" s="8"/>
+      <c r="A123" s="1"/>
+      <c r="B123"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="3"/>
     </row>
     <row r="124" customFormat="1" spans="1:10">
-      <c r="A124" s="5"/>
-      <c r="B124" s="6"/>
-      <c r="C124" s="5"/>
-      <c r="D124" s="5"/>
-      <c r="E124" s="5"/>
-      <c r="F124" s="7"/>
-      <c r="G124" s="7"/>
-      <c r="H124" s="5"/>
-      <c r="I124" s="5"/>
-      <c r="J124" s="8"/>
-    </row>
-    <row r="125" customFormat="1" spans="1:10">
+      <c r="A124" s="1"/>
+      <c r="B124"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="3"/>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="5"/>
-      <c r="B125"/>
+      <c r="B125" s="6"/>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
@@ -3841,7 +3864,7 @@
     </row>
     <row r="126" customFormat="1" spans="1:10">
       <c r="A126" s="5"/>
-      <c r="B126"/>
+      <c r="B126" s="6"/>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
@@ -3851,7 +3874,7 @@
       <c r="I126" s="5"/>
       <c r="J126" s="8"/>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" customFormat="1" spans="1:10">
       <c r="A127" s="5"/>
       <c r="B127" s="6"/>
       <c r="C127" s="5"/>
@@ -3862,6 +3885,42 @@
       <c r="H127" s="5"/>
       <c r="I127" s="5"/>
       <c r="J127" s="8"/>
+    </row>
+    <row r="128" customFormat="1" spans="1:10">
+      <c r="A128" s="5"/>
+      <c r="B128"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="7"/>
+      <c r="G128" s="7"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="5"/>
+      <c r="J128" s="8"/>
+    </row>
+    <row r="129" customFormat="1" spans="1:10">
+      <c r="A129" s="5"/>
+      <c r="B129"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="7"/>
+      <c r="G129" s="7"/>
+      <c r="H129" s="5"/>
+      <c r="I129" s="5"/>
+      <c r="J129" s="8"/>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="5"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="7"/>
+      <c r="G130" s="7"/>
+      <c r="H130" s="5"/>
+      <c r="I130" s="5"/>
+      <c r="J130" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GunfireDungeon_Godot/excel/ActivityBase.xlsx
+++ b/GunfireDungeon_Godot/excel/ActivityBase.xlsx
@@ -472,7 +472,7 @@
     <t>通用零件物体</t>
   </si>
   <si>
-    <t>res://prefab/part/PartActivityObject.tscn</t>
+    <t>res://prefab/part/PartProp.tscn</t>
   </si>
   <si>
     <t>鞋子-prop0001</t>
@@ -1769,7 +1769,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K57" sqref="K57"/>
+      <selection pane="bottomRight" activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2762,18 +2762,6 @@
         <v>136</v>
       </c>
     </row>
-    <row r="56" customFormat="1" spans="1:10">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="3"/>
-    </row>
     <row r="57" customFormat="1" spans="1:10">
       <c r="A57" s="1" t="s">
         <v>137</v>
@@ -2799,18 +2787,6 @@
       <c r="J57" s="3" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="58" customFormat="1" spans="1:10">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="3"/>
     </row>
     <row r="60" spans="2:12">
       <c r="B60" s="1" t="s">

--- a/GunfireDungeon_Godot/excel/ActivityBase.xlsx
+++ b/GunfireDungeon_Godot/excel/ActivityBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28530" windowHeight="14235"/>
+    <workbookView windowWidth="25860" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="239">
   <si>
     <t>Id</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>Icon</t>
+  </si>
+  <si>
+    <t>NotInRandomPool</t>
   </si>
   <si>
     <t>ShowInMapEditor</t>
@@ -121,6 +124,9 @@
   <si>
     <t>物体图标
 如果不需要在图鉴或者地图编辑器中显示该物体, 则可以不用设置</t>
+  </si>
+  <si>
+    <t>不在随机池中出现，仅对敌人，武器，道具生效</t>
   </si>
   <si>
     <t>是否在地图编辑器中显示该物体
@@ -1762,14 +1768,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L130"/>
+  <dimension ref="A1:M130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="I39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="D48" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J57" sqref="J57"/>
+      <selection pane="bottomRight" activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1783,10 +1789,11 @@
     <col min="9" max="9" width="22.125" style="1" customWidth="1"/>
     <col min="10" max="10" width="63.3666666666667" style="3" customWidth="1"/>
     <col min="11" max="11" width="61.9166666666667" customWidth="1"/>
-    <col min="12" max="12" width="32.425" customWidth="1"/>
+    <col min="12" max="12" width="35.325" customWidth="1"/>
+    <col min="13" max="13" width="32.425" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1" spans="1:12">
+    <row r="1" ht="25" customHeight="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1823,243 +1830,252 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" ht="138" customHeight="1" spans="1:12">
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" ht="138" customHeight="1" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" ht="28" customHeight="1" spans="1:12">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" ht="28" customHeight="1" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" ht="35" customHeight="1" spans="10:12">
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" ht="35" customHeight="1" spans="10:13">
       <c r="J4" s="1"/>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" ht="28" customHeight="1" spans="1:12">
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" ht="28" customHeight="1" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" ht="28" customHeight="1" spans="10:12">
+        <v>35</v>
+      </c>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" ht="28" customHeight="1" spans="10:13">
       <c r="J6" s="1"/>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" ht="28" customHeight="1" spans="1:12">
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" ht="28" customHeight="1" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L7" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="28" customHeight="1" spans="2:12">
+        <v>39</v>
+      </c>
+      <c r="M7" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="28" customHeight="1" spans="2:13">
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1">
         <v>4</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="28" customHeight="1" spans="10:12">
+        <v>42</v>
+      </c>
+      <c r="M8" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="28" customHeight="1" spans="10:13">
       <c r="J9" s="1"/>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" ht="28" customHeight="1" spans="10:12">
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" ht="28" customHeight="1" spans="10:13">
       <c r="J10" s="1"/>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" ht="28" customHeight="1" spans="10:12">
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" ht="28" customHeight="1" spans="10:13">
       <c r="J11" s="1"/>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" ht="28" customHeight="1" spans="10:12">
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" ht="28" customHeight="1" spans="10:13">
       <c r="J12" s="1"/>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" ht="28" customHeight="1" spans="1:12">
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" ht="28" customHeight="1" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1">
         <v>12</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H13" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L13" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" ht="28" customHeight="1" spans="10:12">
+        <v>45</v>
+      </c>
+      <c r="M13" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="28" customHeight="1" spans="10:13">
       <c r="J14" s="1"/>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" ht="28" customHeight="1" spans="1:12">
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" ht="28" customHeight="1" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1">
         <v>11</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H15" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K15" t="s">
-        <v>47</v>
-      </c>
-      <c r="L15" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" ht="28" customHeight="1" spans="10:12">
+        <v>49</v>
+      </c>
+      <c r="M15" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" ht="28" customHeight="1" spans="10:13">
       <c r="J16" s="1"/>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" ht="24" customHeight="1" spans="2:12">
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" ht="24" customHeight="1" spans="2:13">
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C17" s="1">
         <v>5</v>
@@ -2071,18 +2087,18 @@
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K17" t="s">
-        <v>50</v>
-      </c>
-      <c r="L17" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" ht="24" customHeight="1" spans="2:12">
+        <v>52</v>
+      </c>
+      <c r="M17" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="24" customHeight="1" spans="2:13">
       <c r="B18" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C18" s="1">
         <v>5</v>
@@ -2094,21 +2110,21 @@
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K18" t="s">
-        <v>53</v>
-      </c>
-      <c r="L18" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" ht="24" customHeight="1" spans="1:12">
+        <v>55</v>
+      </c>
+      <c r="M18" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="24" customHeight="1" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C19" s="1">
         <v>5</v>
@@ -2120,18 +2136,18 @@
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K19" t="s">
-        <v>57</v>
-      </c>
-      <c r="L19" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" ht="24" customHeight="1" spans="2:12">
+        <v>59</v>
+      </c>
+      <c r="M19" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" ht="24" customHeight="1" spans="2:13">
       <c r="B20" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C20" s="1">
         <v>5</v>
@@ -2143,18 +2159,18 @@
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K20" t="s">
-        <v>60</v>
-      </c>
-      <c r="L20" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" ht="24" customHeight="1" spans="2:12">
+        <v>62</v>
+      </c>
+      <c r="M20" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" ht="24" customHeight="1" spans="2:13">
       <c r="B21" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C21" s="1">
         <v>5</v>
@@ -2166,18 +2182,18 @@
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K21" t="s">
-        <v>63</v>
-      </c>
-      <c r="L21" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" ht="24" customHeight="1" spans="2:12">
+        <v>65</v>
+      </c>
+      <c r="M21" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" ht="24" customHeight="1" spans="2:13">
       <c r="B22" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C22" s="1">
         <v>5</v>
@@ -2189,18 +2205,18 @@
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K22" t="s">
-        <v>66</v>
-      </c>
-      <c r="L22" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" ht="24" customHeight="1" spans="2:12">
+        <v>68</v>
+      </c>
+      <c r="M22" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" ht="24" customHeight="1" spans="2:13">
       <c r="B23" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C23" s="1">
         <v>5</v>
@@ -2212,18 +2228,18 @@
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K23" t="s">
-        <v>69</v>
-      </c>
-      <c r="L23" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" ht="24" customHeight="1" spans="2:12">
+        <v>71</v>
+      </c>
+      <c r="M23" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" ht="24" customHeight="1" spans="2:13">
       <c r="B24" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C24" s="1">
         <v>5</v>
@@ -2235,18 +2251,18 @@
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K24" t="s">
-        <v>72</v>
-      </c>
-      <c r="L24" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" ht="24" customHeight="1" spans="2:12">
+        <v>74</v>
+      </c>
+      <c r="M24" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" ht="24" customHeight="1" spans="2:13">
       <c r="B25" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C25" s="1">
         <v>5</v>
@@ -2258,18 +2274,18 @@
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K25" t="s">
-        <v>75</v>
-      </c>
-      <c r="L25" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" ht="24" customHeight="1" spans="2:12">
+        <v>77</v>
+      </c>
+      <c r="M25" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" ht="24" customHeight="1" spans="2:13">
       <c r="B26" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C26" s="1">
         <v>5</v>
@@ -2281,18 +2297,18 @@
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K26" t="s">
-        <v>78</v>
-      </c>
-      <c r="L26" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" ht="24" customHeight="1" spans="2:12">
+        <v>80</v>
+      </c>
+      <c r="M26" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" ht="24" customHeight="1" spans="2:13">
       <c r="B27" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C27" s="1">
         <v>5</v>
@@ -2304,18 +2320,18 @@
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K27" t="s">
-        <v>81</v>
-      </c>
-      <c r="L27" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" ht="24" customHeight="1" spans="2:12">
+        <v>83</v>
+      </c>
+      <c r="M27" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" ht="24" customHeight="1" spans="2:13">
       <c r="B28" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C28" s="1">
         <v>5</v>
@@ -2327,18 +2343,18 @@
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K28" t="s">
-        <v>84</v>
-      </c>
-      <c r="L28" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" ht="24" customHeight="1" spans="2:12">
+        <v>86</v>
+      </c>
+      <c r="M28" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" ht="24" customHeight="1" spans="2:13">
       <c r="B29" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C29" s="1">
         <v>5</v>
@@ -2350,18 +2366,18 @@
         <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K29" t="s">
-        <v>87</v>
-      </c>
-      <c r="L29" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" ht="24" customHeight="1" spans="2:12">
+        <v>89</v>
+      </c>
+      <c r="M29" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" ht="24" customHeight="1" spans="2:13">
       <c r="B30" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C30" s="1">
         <v>5</v>
@@ -2373,19 +2389,19 @@
         <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K30" t="s">
-        <v>90</v>
-      </c>
-      <c r="L30" s="2" t="b">
+        <v>92</v>
+      </c>
+      <c r="M30" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="31" ht="39" customHeight="1"/>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C32" s="1">
         <v>6</v>
@@ -2394,15 +2410,15 @@
         <v>0</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C33" s="1">
         <v>6</v>
@@ -2411,15 +2427,15 @@
         <v>0</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1">
@@ -2433,18 +2449,18 @@
         <v>0</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" customFormat="1" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C35" s="1">
         <v>6</v>
@@ -2457,18 +2473,18 @@
         <v>0</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" customFormat="1" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C36" s="1">
         <v>6</v>
@@ -2481,18 +2497,18 @@
         <v>0</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C37" s="1">
         <v>6</v>
@@ -2505,15 +2521,15 @@
         <v>0</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" customFormat="1" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1">
@@ -2527,15 +2543,15 @@
         <v>0</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" customFormat="1" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1">
@@ -2549,18 +2565,18 @@
         <v>0</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" customFormat="1" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C40" s="1">
         <v>6</v>
@@ -2574,7 +2590,7 @@
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" customFormat="1" spans="1:10">
@@ -2591,10 +2607,10 @@
     </row>
     <row r="42" customFormat="1" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C42" s="1">
         <v>99</v>
@@ -2608,7 +2624,7 @@
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" customFormat="1" spans="1:10">
@@ -2625,10 +2641,10 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C44" s="1">
         <v>99</v>
@@ -2637,12 +2653,12 @@
         <v>0</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" customFormat="1" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1">
@@ -2656,15 +2672,15 @@
         <v>0</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" customFormat="1" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1">
@@ -2678,15 +2694,15 @@
         <v>0</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C49" s="1">
         <v>7</v>
@@ -2695,15 +2711,15 @@
         <v>0</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" customFormat="1" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1">
@@ -2717,32 +2733,32 @@
         <v>0</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C54" s="1">
         <v>8</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H54" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55" customFormat="1" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1">
@@ -2751,7 +2767,7 @@
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="1" t="b">
@@ -2759,15 +2775,15 @@
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="57" customFormat="1" spans="1:10">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="57" customFormat="1" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C57" s="1">
         <v>9</v>
@@ -2777,7 +2793,7 @@
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="1" t="b">
@@ -2785,12 +2801,18 @@
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="60" spans="2:12">
+        <v>141</v>
+      </c>
+      <c r="L57" t="b">
+        <v>1</v>
+      </c>
+      <c r="M57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13">
       <c r="B60" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C60" s="1">
         <v>9</v>
@@ -2799,28 +2821,28 @@
         <v>4</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H60" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K60" t="s">
-        <v>144</v>
-      </c>
-      <c r="L60" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" customFormat="1" spans="1:12">
+        <v>146</v>
+      </c>
+      <c r="M60" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" customFormat="1" spans="1:13">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C61" s="1">
         <v>9</v>
@@ -2830,7 +2852,7 @@
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="1" t="b">
@@ -2838,19 +2860,19 @@
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K61" t="s">
-        <v>147</v>
-      </c>
-      <c r="L61" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" customFormat="1" spans="1:12">
+        <v>149</v>
+      </c>
+      <c r="M61" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" customFormat="1" spans="1:13">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C62" s="1">
         <v>9</v>
@@ -2860,7 +2882,7 @@
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="1" t="b">
@@ -2868,19 +2890,19 @@
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K62" t="s">
-        <v>150</v>
-      </c>
-      <c r="L62" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" customFormat="1" spans="1:12">
+        <v>152</v>
+      </c>
+      <c r="M62" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" customFormat="1" spans="1:13">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C63" s="1">
         <v>9</v>
@@ -2890,7 +2912,7 @@
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="1" t="b">
@@ -2898,19 +2920,19 @@
       </c>
       <c r="I63" s="1"/>
       <c r="J63" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K63" t="s">
-        <v>153</v>
-      </c>
-      <c r="L63" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" customFormat="1" spans="1:12">
+        <v>155</v>
+      </c>
+      <c r="M63" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" customFormat="1" spans="1:13">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C64" s="1">
         <v>9</v>
@@ -2920,7 +2942,7 @@
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="1" t="b">
@@ -2928,19 +2950,19 @@
       </c>
       <c r="I64" s="1"/>
       <c r="J64" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K64" t="s">
-        <v>156</v>
-      </c>
-      <c r="L64" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" customFormat="1" spans="1:12">
+        <v>158</v>
+      </c>
+      <c r="M64" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" customFormat="1" spans="1:13">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C65" s="1">
         <v>9</v>
@@ -2950,7 +2972,7 @@
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="1" t="b">
@@ -2958,19 +2980,19 @@
       </c>
       <c r="I65" s="1"/>
       <c r="J65" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K65" t="s">
-        <v>159</v>
-      </c>
-      <c r="L65" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" customFormat="1" spans="1:12">
+        <v>161</v>
+      </c>
+      <c r="M65" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" customFormat="1" spans="1:13">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C66" s="1">
         <v>9</v>
@@ -2980,7 +3002,7 @@
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="1" t="b">
@@ -2988,19 +3010,19 @@
       </c>
       <c r="I66" s="1"/>
       <c r="J66" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K66" t="s">
-        <v>162</v>
-      </c>
-      <c r="L66" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" customFormat="1" spans="1:12">
+        <v>164</v>
+      </c>
+      <c r="M66" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" customFormat="1" spans="1:13">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C67" s="1">
         <v>9</v>
@@ -3010,7 +3032,7 @@
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="1" t="b">
@@ -3018,19 +3040,19 @@
       </c>
       <c r="I67" s="1"/>
       <c r="J67" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K67" t="s">
-        <v>165</v>
-      </c>
-      <c r="L67" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" customFormat="1" spans="1:12">
+        <v>167</v>
+      </c>
+      <c r="M67" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" customFormat="1" spans="1:13">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C68" s="1">
         <v>9</v>
@@ -3040,7 +3062,7 @@
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="1" t="b">
@@ -3048,19 +3070,19 @@
       </c>
       <c r="I68" s="1"/>
       <c r="J68" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K68" t="s">
-        <v>168</v>
-      </c>
-      <c r="L68" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" customFormat="1" ht="27" spans="1:12">
+        <v>170</v>
+      </c>
+      <c r="M68" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" customFormat="1" ht="27" spans="1:13">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C69" s="1">
         <v>9</v>
@@ -3070,7 +3092,7 @@
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="1" t="b">
@@ -3078,19 +3100,19 @@
       </c>
       <c r="I69" s="1"/>
       <c r="J69" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K69" t="s">
-        <v>171</v>
-      </c>
-      <c r="L69" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" customFormat="1" spans="1:12">
+        <v>173</v>
+      </c>
+      <c r="M69" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" customFormat="1" spans="1:13">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C70" s="1">
         <v>9</v>
@@ -3100,7 +3122,7 @@
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="1" t="b">
@@ -3108,19 +3130,19 @@
       </c>
       <c r="I70" s="1"/>
       <c r="J70" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K70" t="s">
-        <v>174</v>
-      </c>
-      <c r="L70" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" customFormat="1" spans="1:12">
+        <v>176</v>
+      </c>
+      <c r="M70" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" customFormat="1" spans="1:13">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C71" s="1">
         <v>9</v>
@@ -3130,7 +3152,7 @@
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G71" s="2"/>
       <c r="H71" s="1" t="b">
@@ -3138,19 +3160,19 @@
       </c>
       <c r="I71" s="1"/>
       <c r="J71" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K71" t="s">
-        <v>177</v>
-      </c>
-      <c r="L71" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" customFormat="1" spans="1:12">
+        <v>179</v>
+      </c>
+      <c r="M71" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" customFormat="1" spans="1:13">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C72" s="1">
         <v>9</v>
@@ -3160,7 +3182,7 @@
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="1" t="b">
@@ -3168,19 +3190,19 @@
       </c>
       <c r="I72" s="1"/>
       <c r="J72" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K72" t="s">
-        <v>180</v>
-      </c>
-      <c r="L72" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" customFormat="1" spans="1:12">
+        <v>182</v>
+      </c>
+      <c r="M72" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" customFormat="1" spans="1:13">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C73" s="1">
         <v>9</v>
@@ -3190,7 +3212,7 @@
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="1" t="b">
@@ -3198,16 +3220,16 @@
       </c>
       <c r="I73" s="1"/>
       <c r="J73" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K73" t="s">
-        <v>183</v>
-      </c>
-      <c r="L73" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" customFormat="1" spans="1:12">
+        <v>185</v>
+      </c>
+      <c r="M73" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" customFormat="1" spans="1:13">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3218,9 +3240,9 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="3"/>
-      <c r="L74" s="2"/>
-    </row>
-    <row r="75" customFormat="1" spans="1:12">
+      <c r="M74" s="2"/>
+    </row>
+    <row r="75" customFormat="1" spans="1:13">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3231,9 +3253,9 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="3"/>
-      <c r="L75" s="2"/>
-    </row>
-    <row r="76" customFormat="1" spans="1:12">
+      <c r="M75" s="2"/>
+    </row>
+    <row r="76" customFormat="1" spans="1:13">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3244,12 +3266,12 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="3"/>
-      <c r="L76" s="2"/>
-    </row>
-    <row r="78" customFormat="1" spans="1:12">
+      <c r="M76" s="2"/>
+    </row>
+    <row r="78" customFormat="1" spans="1:13">
       <c r="A78" s="1"/>
       <c r="B78" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C78" s="1">
         <v>9</v>
@@ -3259,7 +3281,7 @@
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="1" t="b">
@@ -3267,19 +3289,19 @@
       </c>
       <c r="I78" s="1"/>
       <c r="J78" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K78" t="s">
-        <v>187</v>
-      </c>
-      <c r="L78" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" customFormat="1" spans="1:12">
+        <v>189</v>
+      </c>
+      <c r="M78" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" customFormat="1" spans="1:13">
       <c r="A79" s="1"/>
       <c r="B79" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C79" s="1">
         <v>9</v>
@@ -3289,7 +3311,7 @@
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="1" t="b">
@@ -3297,19 +3319,19 @@
       </c>
       <c r="I79" s="1"/>
       <c r="J79" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K79" t="s">
-        <v>190</v>
-      </c>
-      <c r="L79" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" customFormat="1" ht="40.5" spans="1:12">
+        <v>192</v>
+      </c>
+      <c r="M79" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" customFormat="1" ht="40.5" spans="1:13">
       <c r="A80" s="1"/>
       <c r="B80" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C80" s="1">
         <v>9</v>
@@ -3319,7 +3341,7 @@
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="1" t="b">
@@ -3327,19 +3349,19 @@
       </c>
       <c r="I80" s="1"/>
       <c r="J80" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K80" t="s">
-        <v>193</v>
-      </c>
-      <c r="L80" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" customFormat="1" spans="1:12">
+        <v>195</v>
+      </c>
+      <c r="M80" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" customFormat="1" spans="1:13">
       <c r="A81" s="1"/>
       <c r="B81" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C81" s="1">
         <v>9</v>
@@ -3349,7 +3371,7 @@
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="1" t="b">
@@ -3357,19 +3379,19 @@
       </c>
       <c r="I81" s="1"/>
       <c r="J81" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K81" t="s">
-        <v>196</v>
-      </c>
-      <c r="L81" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" customFormat="1" ht="27" spans="1:12">
+        <v>198</v>
+      </c>
+      <c r="M81" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" customFormat="1" ht="27" spans="1:13">
       <c r="A82" s="1"/>
       <c r="B82" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C82" s="1">
         <v>9</v>
@@ -3379,7 +3401,7 @@
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G82" s="2"/>
       <c r="H82" s="1" t="b">
@@ -3387,19 +3409,19 @@
       </c>
       <c r="I82" s="1"/>
       <c r="J82" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K82" t="s">
-        <v>199</v>
-      </c>
-      <c r="L82" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" customFormat="1" spans="1:12">
+        <v>201</v>
+      </c>
+      <c r="M82" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" customFormat="1" spans="1:13">
       <c r="A83" s="1"/>
       <c r="B83" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C83" s="1">
         <v>9</v>
@@ -3409,7 +3431,7 @@
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="1" t="b">
@@ -3417,19 +3439,19 @@
       </c>
       <c r="I83" s="1"/>
       <c r="J83" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K83" t="s">
-        <v>202</v>
-      </c>
-      <c r="L83" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" customFormat="1" spans="1:12">
+        <v>204</v>
+      </c>
+      <c r="M83" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" customFormat="1" spans="1:13">
       <c r="A84" s="1"/>
       <c r="B84" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C84" s="1">
         <v>9</v>
@@ -3439,7 +3461,7 @@
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G84" s="2"/>
       <c r="H84" s="1" t="b">
@@ -3447,16 +3469,16 @@
       </c>
       <c r="I84" s="1"/>
       <c r="J84" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K84" t="s">
-        <v>205</v>
-      </c>
-      <c r="L84" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" customFormat="1" spans="1:12">
+        <v>207</v>
+      </c>
+      <c r="M84" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" customFormat="1" spans="1:13">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3467,9 +3489,9 @@
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
       <c r="J85" s="3"/>
-      <c r="L85" s="2"/>
-    </row>
-    <row r="86" customFormat="1" spans="1:12">
+      <c r="M85" s="2"/>
+    </row>
+    <row r="86" customFormat="1" spans="1:13">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -3480,35 +3502,35 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
       <c r="J86" s="3"/>
-      <c r="L86" s="2"/>
-    </row>
-    <row r="87" spans="1:12">
+      <c r="M86" s="2"/>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C87" s="1">
         <v>10</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H87" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K87" t="s">
-        <v>209</v>
-      </c>
-      <c r="L87" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" customFormat="1" spans="1:12">
+        <v>211</v>
+      </c>
+      <c r="M87" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" customFormat="1" spans="1:13">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3519,143 +3541,143 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
       <c r="J88" s="3"/>
-      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C90" s="1">
         <v>99</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H90" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C91" s="1">
         <v>99</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H91" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C92" s="1">
         <v>99</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H92" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C93" s="1">
         <v>99</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H93" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C95" s="1">
         <v>99</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H95" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K95" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C96" s="1">
         <v>99</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H96" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K96" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C97" s="1">
         <v>99</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H97" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K97" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="107" customFormat="1" spans="1:10">

--- a/GunfireDungeon_Godot/excel/ActivityBase.xlsx
+++ b/GunfireDungeon_Godot/excel/ActivityBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25860" windowHeight="13065"/>
+    <workbookView windowWidth="27855" windowHeight="15495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="240">
   <si>
     <t>Id</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>uint</t>
+  </si>
+  <si>
+    <t>BBCode</t>
   </si>
   <si>
     <t>boolean</t>
@@ -1771,11 +1774,11 @@
   <dimension ref="A1:M130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F57" sqref="F57"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1892,16 +1895,16 @@
         <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>26</v>
@@ -1910,10 +1913,10 @@
         <v>26</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" ht="35" customHeight="1" spans="10:13">
@@ -1922,25 +1925,25 @@
     </row>
     <row r="5" ht="28" customHeight="1" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M5" s="2"/>
     </row>
@@ -1950,25 +1953,25 @@
     </row>
     <row r="7" ht="28" customHeight="1" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="2" t="b">
         <v>1</v>
@@ -1976,22 +1979,22 @@
     </row>
     <row r="8" ht="28" customHeight="1" spans="2:13">
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="1">
         <v>4</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M8" s="2" t="b">
         <v>1</v>
@@ -2015,25 +2018,25 @@
     </row>
     <row r="13" ht="28" customHeight="1" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" s="1">
         <v>12</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H13" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M13" s="2" t="b">
         <v>1</v>
@@ -2045,25 +2048,25 @@
     </row>
     <row r="15" ht="28" customHeight="1" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" s="1">
         <v>11</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H15" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M15" s="2" t="b">
         <v>1</v>
@@ -2075,7 +2078,7 @@
     </row>
     <row r="17" ht="24" customHeight="1" spans="2:13">
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" s="1">
         <v>5</v>
@@ -2087,10 +2090,10 @@
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M17" s="2" t="b">
         <v>1</v>
@@ -2098,7 +2101,7 @@
     </row>
     <row r="18" ht="24" customHeight="1" spans="2:13">
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18" s="1">
         <v>5</v>
@@ -2110,10 +2113,10 @@
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M18" s="2" t="b">
         <v>1</v>
@@ -2121,10 +2124,10 @@
     </row>
     <row r="19" ht="24" customHeight="1" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C19" s="1">
         <v>5</v>
@@ -2136,10 +2139,10 @@
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M19" s="2" t="b">
         <v>1</v>
@@ -2147,7 +2150,7 @@
     </row>
     <row r="20" ht="24" customHeight="1" spans="2:13">
       <c r="B20" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C20" s="1">
         <v>5</v>
@@ -2159,10 +2162,10 @@
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M20" s="2" t="b">
         <v>1</v>
@@ -2170,7 +2173,7 @@
     </row>
     <row r="21" ht="24" customHeight="1" spans="2:13">
       <c r="B21" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C21" s="1">
         <v>5</v>
@@ -2182,10 +2185,10 @@
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M21" s="2" t="b">
         <v>1</v>
@@ -2193,7 +2196,7 @@
     </row>
     <row r="22" ht="24" customHeight="1" spans="2:13">
       <c r="B22" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C22" s="1">
         <v>5</v>
@@ -2205,10 +2208,10 @@
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M22" s="2" t="b">
         <v>1</v>
@@ -2216,7 +2219,7 @@
     </row>
     <row r="23" ht="24" customHeight="1" spans="2:13">
       <c r="B23" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C23" s="1">
         <v>5</v>
@@ -2228,10 +2231,10 @@
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M23" s="2" t="b">
         <v>1</v>
@@ -2239,7 +2242,7 @@
     </row>
     <row r="24" ht="24" customHeight="1" spans="2:13">
       <c r="B24" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C24" s="1">
         <v>5</v>
@@ -2251,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M24" s="2" t="b">
         <v>1</v>
@@ -2262,7 +2265,7 @@
     </row>
     <row r="25" ht="24" customHeight="1" spans="2:13">
       <c r="B25" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C25" s="1">
         <v>5</v>
@@ -2274,10 +2277,10 @@
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M25" s="2" t="b">
         <v>1</v>
@@ -2285,7 +2288,7 @@
     </row>
     <row r="26" ht="24" customHeight="1" spans="2:13">
       <c r="B26" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C26" s="1">
         <v>5</v>
@@ -2297,10 +2300,10 @@
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M26" s="2" t="b">
         <v>1</v>
@@ -2308,7 +2311,7 @@
     </row>
     <row r="27" ht="24" customHeight="1" spans="2:13">
       <c r="B27" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C27" s="1">
         <v>5</v>
@@ -2320,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M27" s="2" t="b">
         <v>1</v>
@@ -2331,7 +2334,7 @@
     </row>
     <row r="28" ht="24" customHeight="1" spans="2:13">
       <c r="B28" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C28" s="1">
         <v>5</v>
@@ -2343,10 +2346,10 @@
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M28" s="2" t="b">
         <v>1</v>
@@ -2354,7 +2357,7 @@
     </row>
     <row r="29" ht="24" customHeight="1" spans="2:13">
       <c r="B29" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C29" s="1">
         <v>5</v>
@@ -2366,10 +2369,10 @@
         <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M29" s="2" t="b">
         <v>1</v>
@@ -2377,7 +2380,7 @@
     </row>
     <row r="30" ht="24" customHeight="1" spans="2:13">
       <c r="B30" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C30" s="1">
         <v>5</v>
@@ -2389,10 +2392,10 @@
         <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M30" s="2" t="b">
         <v>1</v>
@@ -2401,7 +2404,7 @@
     <row r="31" ht="39" customHeight="1"/>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C32" s="1">
         <v>6</v>
@@ -2410,15 +2413,15 @@
         <v>0</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C33" s="1">
         <v>6</v>
@@ -2427,15 +2430,15 @@
         <v>0</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1">
@@ -2449,18 +2452,18 @@
         <v>0</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" customFormat="1" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C35" s="1">
         <v>6</v>
@@ -2473,18 +2476,18 @@
         <v>0</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" customFormat="1" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C36" s="1">
         <v>6</v>
@@ -2497,18 +2500,18 @@
         <v>0</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C37" s="1">
         <v>6</v>
@@ -2521,15 +2524,15 @@
         <v>0</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" customFormat="1" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1">
@@ -2543,15 +2546,15 @@
         <v>0</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" customFormat="1" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1">
@@ -2565,18 +2568,18 @@
         <v>0</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" customFormat="1" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C40" s="1">
         <v>6</v>
@@ -2590,7 +2593,7 @@
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" customFormat="1" spans="1:10">
@@ -2607,10 +2610,10 @@
     </row>
     <row r="42" customFormat="1" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C42" s="1">
         <v>99</v>
@@ -2624,7 +2627,7 @@
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" customFormat="1" spans="1:10">
@@ -2641,10 +2644,10 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C44" s="1">
         <v>99</v>
@@ -2653,12 +2656,12 @@
         <v>0</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" customFormat="1" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1">
@@ -2672,15 +2675,15 @@
         <v>0</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" customFormat="1" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1">
@@ -2694,15 +2697,15 @@
         <v>0</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C49" s="1">
         <v>7</v>
@@ -2711,15 +2714,15 @@
         <v>0</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" customFormat="1" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1">
@@ -2733,32 +2736,32 @@
         <v>0</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C54" s="1">
         <v>8</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H54" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" customFormat="1" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1">
@@ -2767,7 +2770,7 @@
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="1" t="b">
@@ -2775,15 +2778,15 @@
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57" customFormat="1" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C57" s="1">
         <v>9</v>
@@ -2793,7 +2796,7 @@
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="1" t="b">
@@ -2801,7 +2804,7 @@
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L57" t="b">
         <v>1</v>
@@ -2812,7 +2815,7 @@
     </row>
     <row r="60" spans="2:13">
       <c r="B60" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C60" s="1">
         <v>9</v>
@@ -2821,19 +2824,19 @@
         <v>4</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H60" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K60" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M60" s="2" t="b">
         <v>1</v>
@@ -2842,7 +2845,7 @@
     <row r="61" customFormat="1" spans="1:13">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C61" s="1">
         <v>9</v>
@@ -2852,7 +2855,7 @@
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="1" t="b">
@@ -2860,10 +2863,10 @@
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K61" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M61" s="2" t="b">
         <v>1</v>
@@ -2872,7 +2875,7 @@
     <row r="62" customFormat="1" spans="1:13">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C62" s="1">
         <v>9</v>
@@ -2882,7 +2885,7 @@
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="1" t="b">
@@ -2890,10 +2893,10 @@
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K62" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M62" s="2" t="b">
         <v>1</v>
@@ -2902,7 +2905,7 @@
     <row r="63" customFormat="1" spans="1:13">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C63" s="1">
         <v>9</v>
@@ -2912,7 +2915,7 @@
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="1" t="b">
@@ -2920,10 +2923,10 @@
       </c>
       <c r="I63" s="1"/>
       <c r="J63" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K63" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M63" s="2" t="b">
         <v>1</v>
@@ -2932,7 +2935,7 @@
     <row r="64" customFormat="1" spans="1:13">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C64" s="1">
         <v>9</v>
@@ -2942,7 +2945,7 @@
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="1" t="b">
@@ -2950,10 +2953,10 @@
       </c>
       <c r="I64" s="1"/>
       <c r="J64" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K64" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M64" s="2" t="b">
         <v>1</v>
@@ -2962,7 +2965,7 @@
     <row r="65" customFormat="1" spans="1:13">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C65" s="1">
         <v>9</v>
@@ -2972,7 +2975,7 @@
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="1" t="b">
@@ -2980,10 +2983,10 @@
       </c>
       <c r="I65" s="1"/>
       <c r="J65" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K65" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M65" s="2" t="b">
         <v>1</v>
@@ -2992,7 +2995,7 @@
     <row r="66" customFormat="1" spans="1:13">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C66" s="1">
         <v>9</v>
@@ -3002,7 +3005,7 @@
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="1" t="b">
@@ -3010,10 +3013,10 @@
       </c>
       <c r="I66" s="1"/>
       <c r="J66" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K66" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M66" s="2" t="b">
         <v>1</v>
@@ -3022,7 +3025,7 @@
     <row r="67" customFormat="1" spans="1:13">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C67" s="1">
         <v>9</v>
@@ -3032,7 +3035,7 @@
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="1" t="b">
@@ -3040,10 +3043,10 @@
       </c>
       <c r="I67" s="1"/>
       <c r="J67" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K67" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M67" s="2" t="b">
         <v>1</v>
@@ -3052,7 +3055,7 @@
     <row r="68" customFormat="1" spans="1:13">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C68" s="1">
         <v>9</v>
@@ -3062,7 +3065,7 @@
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="1" t="b">
@@ -3070,10 +3073,10 @@
       </c>
       <c r="I68" s="1"/>
       <c r="J68" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K68" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M68" s="2" t="b">
         <v>1</v>
@@ -3082,7 +3085,7 @@
     <row r="69" customFormat="1" ht="27" spans="1:13">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C69" s="1">
         <v>9</v>
@@ -3092,7 +3095,7 @@
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="1" t="b">
@@ -3100,10 +3103,10 @@
       </c>
       <c r="I69" s="1"/>
       <c r="J69" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K69" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M69" s="2" t="b">
         <v>1</v>
@@ -3112,7 +3115,7 @@
     <row r="70" customFormat="1" spans="1:13">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C70" s="1">
         <v>9</v>
@@ -3122,7 +3125,7 @@
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="1" t="b">
@@ -3130,10 +3133,10 @@
       </c>
       <c r="I70" s="1"/>
       <c r="J70" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K70" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M70" s="2" t="b">
         <v>1</v>
@@ -3142,7 +3145,7 @@
     <row r="71" customFormat="1" spans="1:13">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C71" s="1">
         <v>9</v>
@@ -3152,7 +3155,7 @@
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G71" s="2"/>
       <c r="H71" s="1" t="b">
@@ -3160,10 +3163,10 @@
       </c>
       <c r="I71" s="1"/>
       <c r="J71" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K71" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M71" s="2" t="b">
         <v>1</v>
@@ -3172,7 +3175,7 @@
     <row r="72" customFormat="1" spans="1:13">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C72" s="1">
         <v>9</v>
@@ -3182,7 +3185,7 @@
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="1" t="b">
@@ -3190,10 +3193,10 @@
       </c>
       <c r="I72" s="1"/>
       <c r="J72" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K72" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M72" s="2" t="b">
         <v>1</v>
@@ -3202,7 +3205,7 @@
     <row r="73" customFormat="1" spans="1:13">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C73" s="1">
         <v>9</v>
@@ -3212,7 +3215,7 @@
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="1" t="b">
@@ -3220,10 +3223,10 @@
       </c>
       <c r="I73" s="1"/>
       <c r="J73" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K73" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M73" s="2" t="b">
         <v>1</v>
@@ -3271,7 +3274,7 @@
     <row r="78" customFormat="1" spans="1:13">
       <c r="A78" s="1"/>
       <c r="B78" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C78" s="1">
         <v>9</v>
@@ -3281,7 +3284,7 @@
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="1" t="b">
@@ -3289,10 +3292,10 @@
       </c>
       <c r="I78" s="1"/>
       <c r="J78" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K78" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M78" s="2" t="b">
         <v>1</v>
@@ -3301,7 +3304,7 @@
     <row r="79" customFormat="1" spans="1:13">
       <c r="A79" s="1"/>
       <c r="B79" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C79" s="1">
         <v>9</v>
@@ -3311,7 +3314,7 @@
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="1" t="b">
@@ -3319,10 +3322,10 @@
       </c>
       <c r="I79" s="1"/>
       <c r="J79" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K79" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M79" s="2" t="b">
         <v>1</v>
@@ -3331,7 +3334,7 @@
     <row r="80" customFormat="1" ht="40.5" spans="1:13">
       <c r="A80" s="1"/>
       <c r="B80" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C80" s="1">
         <v>9</v>
@@ -3341,7 +3344,7 @@
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="1" t="b">
@@ -3349,10 +3352,10 @@
       </c>
       <c r="I80" s="1"/>
       <c r="J80" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K80" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M80" s="2" t="b">
         <v>1</v>
@@ -3361,7 +3364,7 @@
     <row r="81" customFormat="1" spans="1:13">
       <c r="A81" s="1"/>
       <c r="B81" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C81" s="1">
         <v>9</v>
@@ -3371,7 +3374,7 @@
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="1" t="b">
@@ -3379,10 +3382,10 @@
       </c>
       <c r="I81" s="1"/>
       <c r="J81" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K81" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M81" s="2" t="b">
         <v>1</v>
@@ -3391,7 +3394,7 @@
     <row r="82" customFormat="1" ht="27" spans="1:13">
       <c r="A82" s="1"/>
       <c r="B82" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C82" s="1">
         <v>9</v>
@@ -3401,7 +3404,7 @@
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G82" s="2"/>
       <c r="H82" s="1" t="b">
@@ -3409,10 +3412,10 @@
       </c>
       <c r="I82" s="1"/>
       <c r="J82" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K82" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M82" s="2" t="b">
         <v>1</v>
@@ -3421,7 +3424,7 @@
     <row r="83" customFormat="1" spans="1:13">
       <c r="A83" s="1"/>
       <c r="B83" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C83" s="1">
         <v>9</v>
@@ -3431,7 +3434,7 @@
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="1" t="b">
@@ -3439,10 +3442,10 @@
       </c>
       <c r="I83" s="1"/>
       <c r="J83" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K83" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M83" s="2" t="b">
         <v>1</v>
@@ -3451,7 +3454,7 @@
     <row r="84" customFormat="1" spans="1:13">
       <c r="A84" s="1"/>
       <c r="B84" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C84" s="1">
         <v>9</v>
@@ -3461,7 +3464,7 @@
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G84" s="2"/>
       <c r="H84" s="1" t="b">
@@ -3469,10 +3472,10 @@
       </c>
       <c r="I84" s="1"/>
       <c r="J84" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K84" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M84" s="2" t="b">
         <v>1</v>
@@ -3506,25 +3509,25 @@
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C87" s="1">
         <v>10</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H87" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K87" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M87" t="b">
         <v>1</v>
@@ -3545,139 +3548,139 @@
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C90" s="1">
         <v>99</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H90" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C91" s="1">
         <v>99</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H91" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C92" s="1">
         <v>99</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H92" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C93" s="1">
         <v>99</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H93" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C95" s="1">
         <v>99</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H95" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K95" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C96" s="1">
         <v>99</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H96" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K96" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C97" s="1">
         <v>99</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H97" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K97" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="107" customFormat="1" spans="1:10">

--- a/GunfireDungeon_Godot/excel/ActivityBase.xlsx
+++ b/GunfireDungeon_Godot/excel/ActivityBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27855" windowHeight="15495"/>
+    <workbookView windowWidth="27855" windowHeight="14280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="242">
   <si>
     <t>Id</t>
   </si>
@@ -208,6 +208,9 @@
     <t>res://resource/sprite/role/shopBoss0001/ShopBoss0001.png</t>
   </si>
   <si>
+    <t>weapon0001</t>
+  </si>
+  <si>
     <t>步枪</t>
   </si>
   <si>
@@ -215,6 +218,9 @@
   </si>
   <si>
     <t>res://resource/sprite/weapon/weapon0001/Weapon0001.png</t>
+  </si>
+  <si>
+    <t>weapon0002</t>
   </si>
   <si>
     <t>霰弹枪</t>
@@ -1774,11 +1780,11 @@
   <dimension ref="A1:M130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2076,9 +2082,12 @@
       <c r="J16" s="1"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" ht="24" customHeight="1" spans="2:13">
+    <row r="17" ht="24" customHeight="1" spans="1:13">
+      <c r="A17" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="B17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C17" s="1">
         <v>5</v>
@@ -2090,18 +2099,21 @@
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M17" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="18" ht="24" customHeight="1" spans="2:13">
+    <row r="18" ht="24" customHeight="1" spans="1:13">
+      <c r="A18" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="B18" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C18" s="1">
         <v>5</v>
@@ -2113,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M18" s="2" t="b">
         <v>1</v>
@@ -2124,10 +2136,10 @@
     </row>
     <row r="19" ht="24" customHeight="1" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C19" s="1">
         <v>5</v>
@@ -2139,10 +2151,10 @@
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M19" s="2" t="b">
         <v>1</v>
@@ -2150,7 +2162,7 @@
     </row>
     <row r="20" ht="24" customHeight="1" spans="2:13">
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C20" s="1">
         <v>5</v>
@@ -2162,10 +2174,10 @@
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M20" s="2" t="b">
         <v>1</v>
@@ -2173,7 +2185,7 @@
     </row>
     <row r="21" ht="24" customHeight="1" spans="2:13">
       <c r="B21" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C21" s="1">
         <v>5</v>
@@ -2185,10 +2197,10 @@
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M21" s="2" t="b">
         <v>1</v>
@@ -2196,7 +2208,7 @@
     </row>
     <row r="22" ht="24" customHeight="1" spans="2:13">
       <c r="B22" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C22" s="1">
         <v>5</v>
@@ -2208,10 +2220,10 @@
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K22" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M22" s="2" t="b">
         <v>1</v>
@@ -2219,7 +2231,7 @@
     </row>
     <row r="23" ht="24" customHeight="1" spans="2:13">
       <c r="B23" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C23" s="1">
         <v>5</v>
@@ -2231,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K23" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M23" s="2" t="b">
         <v>1</v>
@@ -2242,7 +2254,7 @@
     </row>
     <row r="24" ht="24" customHeight="1" spans="2:13">
       <c r="B24" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C24" s="1">
         <v>5</v>
@@ -2254,10 +2266,10 @@
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M24" s="2" t="b">
         <v>1</v>
@@ -2265,7 +2277,7 @@
     </row>
     <row r="25" ht="24" customHeight="1" spans="2:13">
       <c r="B25" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C25" s="1">
         <v>5</v>
@@ -2277,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M25" s="2" t="b">
         <v>1</v>
@@ -2288,7 +2300,7 @@
     </row>
     <row r="26" ht="24" customHeight="1" spans="2:13">
       <c r="B26" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C26" s="1">
         <v>5</v>
@@ -2300,10 +2312,10 @@
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K26" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M26" s="2" t="b">
         <v>1</v>
@@ -2311,7 +2323,7 @@
     </row>
     <row r="27" ht="24" customHeight="1" spans="2:13">
       <c r="B27" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C27" s="1">
         <v>5</v>
@@ -2323,10 +2335,10 @@
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K27" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M27" s="2" t="b">
         <v>1</v>
@@ -2334,7 +2346,7 @@
     </row>
     <row r="28" ht="24" customHeight="1" spans="2:13">
       <c r="B28" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C28" s="1">
         <v>5</v>
@@ -2346,10 +2358,10 @@
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K28" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M28" s="2" t="b">
         <v>1</v>
@@ -2357,7 +2369,7 @@
     </row>
     <row r="29" ht="24" customHeight="1" spans="2:13">
       <c r="B29" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C29" s="1">
         <v>5</v>
@@ -2369,10 +2381,10 @@
         <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K29" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M29" s="2" t="b">
         <v>1</v>
@@ -2380,7 +2392,7 @@
     </row>
     <row r="30" ht="24" customHeight="1" spans="2:13">
       <c r="B30" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C30" s="1">
         <v>5</v>
@@ -2392,10 +2404,10 @@
         <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K30" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M30" s="2" t="b">
         <v>1</v>
@@ -2404,7 +2416,7 @@
     <row r="31" ht="39" customHeight="1"/>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C32" s="1">
         <v>6</v>
@@ -2413,15 +2425,15 @@
         <v>0</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C33" s="1">
         <v>6</v>
@@ -2430,15 +2442,15 @@
         <v>0</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1">
@@ -2452,18 +2464,18 @@
         <v>0</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" customFormat="1" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C35" s="1">
         <v>6</v>
@@ -2476,18 +2488,18 @@
         <v>0</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" customFormat="1" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C36" s="1">
         <v>6</v>
@@ -2500,18 +2512,18 @@
         <v>0</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C37" s="1">
         <v>6</v>
@@ -2524,15 +2536,15 @@
         <v>0</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" customFormat="1" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1">
@@ -2546,15 +2558,15 @@
         <v>0</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" customFormat="1" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1">
@@ -2568,18 +2580,18 @@
         <v>0</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" customFormat="1" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C40" s="1">
         <v>6</v>
@@ -2593,7 +2605,7 @@
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" customFormat="1" spans="1:10">
@@ -2610,10 +2622,10 @@
     </row>
     <row r="42" customFormat="1" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C42" s="1">
         <v>99</v>
@@ -2627,7 +2639,7 @@
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" customFormat="1" spans="1:10">
@@ -2644,10 +2656,10 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C44" s="1">
         <v>99</v>
@@ -2656,12 +2668,12 @@
         <v>0</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" customFormat="1" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1">
@@ -2675,15 +2687,15 @@
         <v>0</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" customFormat="1" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1">
@@ -2697,15 +2709,15 @@
         <v>0</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C49" s="1">
         <v>7</v>
@@ -2714,15 +2726,15 @@
         <v>0</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" customFormat="1" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1">
@@ -2736,32 +2748,32 @@
         <v>0</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C54" s="1">
         <v>8</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H54" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" customFormat="1" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1">
@@ -2770,7 +2782,7 @@
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="1" t="b">
@@ -2778,15 +2790,15 @@
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57" customFormat="1" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C57" s="1">
         <v>9</v>
@@ -2796,7 +2808,7 @@
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="1" t="b">
@@ -2804,7 +2816,7 @@
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L57" t="b">
         <v>1</v>
@@ -2815,7 +2827,7 @@
     </row>
     <row r="60" spans="2:13">
       <c r="B60" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C60" s="1">
         <v>9</v>
@@ -2824,19 +2836,19 @@
         <v>4</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H60" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K60" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M60" s="2" t="b">
         <v>1</v>
@@ -2845,7 +2857,7 @@
     <row r="61" customFormat="1" spans="1:13">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C61" s="1">
         <v>9</v>
@@ -2855,7 +2867,7 @@
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="1" t="b">
@@ -2863,10 +2875,10 @@
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K61" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M61" s="2" t="b">
         <v>1</v>
@@ -2875,7 +2887,7 @@
     <row r="62" customFormat="1" spans="1:13">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C62" s="1">
         <v>9</v>
@@ -2885,7 +2897,7 @@
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="1" t="b">
@@ -2893,10 +2905,10 @@
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K62" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M62" s="2" t="b">
         <v>1</v>
@@ -2905,7 +2917,7 @@
     <row r="63" customFormat="1" spans="1:13">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C63" s="1">
         <v>9</v>
@@ -2915,7 +2927,7 @@
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="1" t="b">
@@ -2923,10 +2935,10 @@
       </c>
       <c r="I63" s="1"/>
       <c r="J63" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K63" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M63" s="2" t="b">
         <v>1</v>
@@ -2935,7 +2947,7 @@
     <row r="64" customFormat="1" spans="1:13">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C64" s="1">
         <v>9</v>
@@ -2945,7 +2957,7 @@
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="1" t="b">
@@ -2953,10 +2965,10 @@
       </c>
       <c r="I64" s="1"/>
       <c r="J64" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K64" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M64" s="2" t="b">
         <v>1</v>
@@ -2965,7 +2977,7 @@
     <row r="65" customFormat="1" spans="1:13">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C65" s="1">
         <v>9</v>
@@ -2975,7 +2987,7 @@
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="1" t="b">
@@ -2983,10 +2995,10 @@
       </c>
       <c r="I65" s="1"/>
       <c r="J65" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K65" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M65" s="2" t="b">
         <v>1</v>
@@ -2995,7 +3007,7 @@
     <row r="66" customFormat="1" spans="1:13">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C66" s="1">
         <v>9</v>
@@ -3005,7 +3017,7 @@
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="1" t="b">
@@ -3013,10 +3025,10 @@
       </c>
       <c r="I66" s="1"/>
       <c r="J66" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K66" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M66" s="2" t="b">
         <v>1</v>
@@ -3025,7 +3037,7 @@
     <row r="67" customFormat="1" spans="1:13">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C67" s="1">
         <v>9</v>
@@ -3035,7 +3047,7 @@
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="1" t="b">
@@ -3043,10 +3055,10 @@
       </c>
       <c r="I67" s="1"/>
       <c r="J67" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K67" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M67" s="2" t="b">
         <v>1</v>
@@ -3055,7 +3067,7 @@
     <row r="68" customFormat="1" spans="1:13">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C68" s="1">
         <v>9</v>
@@ -3065,7 +3077,7 @@
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="1" t="b">
@@ -3073,10 +3085,10 @@
       </c>
       <c r="I68" s="1"/>
       <c r="J68" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K68" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M68" s="2" t="b">
         <v>1</v>
@@ -3085,7 +3097,7 @@
     <row r="69" customFormat="1" ht="27" spans="1:13">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C69" s="1">
         <v>9</v>
@@ -3095,7 +3107,7 @@
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="1" t="b">
@@ -3103,10 +3115,10 @@
       </c>
       <c r="I69" s="1"/>
       <c r="J69" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K69" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M69" s="2" t="b">
         <v>1</v>
@@ -3115,7 +3127,7 @@
     <row r="70" customFormat="1" spans="1:13">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C70" s="1">
         <v>9</v>
@@ -3125,7 +3137,7 @@
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="1" t="b">
@@ -3133,10 +3145,10 @@
       </c>
       <c r="I70" s="1"/>
       <c r="J70" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K70" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M70" s="2" t="b">
         <v>1</v>
@@ -3145,7 +3157,7 @@
     <row r="71" customFormat="1" spans="1:13">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C71" s="1">
         <v>9</v>
@@ -3155,7 +3167,7 @@
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G71" s="2"/>
       <c r="H71" s="1" t="b">
@@ -3163,10 +3175,10 @@
       </c>
       <c r="I71" s="1"/>
       <c r="J71" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K71" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M71" s="2" t="b">
         <v>1</v>
@@ -3175,7 +3187,7 @@
     <row r="72" customFormat="1" spans="1:13">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C72" s="1">
         <v>9</v>
@@ -3185,7 +3197,7 @@
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="1" t="b">
@@ -3193,10 +3205,10 @@
       </c>
       <c r="I72" s="1"/>
       <c r="J72" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K72" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M72" s="2" t="b">
         <v>1</v>
@@ -3205,7 +3217,7 @@
     <row r="73" customFormat="1" spans="1:13">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C73" s="1">
         <v>9</v>
@@ -3215,7 +3227,7 @@
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="1" t="b">
@@ -3223,10 +3235,10 @@
       </c>
       <c r="I73" s="1"/>
       <c r="J73" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K73" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M73" s="2" t="b">
         <v>1</v>
@@ -3274,7 +3286,7 @@
     <row r="78" customFormat="1" spans="1:13">
       <c r="A78" s="1"/>
       <c r="B78" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C78" s="1">
         <v>9</v>
@@ -3284,7 +3296,7 @@
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="1" t="b">
@@ -3292,10 +3304,10 @@
       </c>
       <c r="I78" s="1"/>
       <c r="J78" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K78" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M78" s="2" t="b">
         <v>1</v>
@@ -3304,7 +3316,7 @@
     <row r="79" customFormat="1" spans="1:13">
       <c r="A79" s="1"/>
       <c r="B79" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C79" s="1">
         <v>9</v>
@@ -3314,7 +3326,7 @@
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="1" t="b">
@@ -3322,10 +3334,10 @@
       </c>
       <c r="I79" s="1"/>
       <c r="J79" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K79" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M79" s="2" t="b">
         <v>1</v>
@@ -3334,7 +3346,7 @@
     <row r="80" customFormat="1" ht="40.5" spans="1:13">
       <c r="A80" s="1"/>
       <c r="B80" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C80" s="1">
         <v>9</v>
@@ -3344,7 +3356,7 @@
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="1" t="b">
@@ -3352,10 +3364,10 @@
       </c>
       <c r="I80" s="1"/>
       <c r="J80" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K80" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M80" s="2" t="b">
         <v>1</v>
@@ -3364,7 +3376,7 @@
     <row r="81" customFormat="1" spans="1:13">
       <c r="A81" s="1"/>
       <c r="B81" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C81" s="1">
         <v>9</v>
@@ -3374,7 +3386,7 @@
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="1" t="b">
@@ -3382,10 +3394,10 @@
       </c>
       <c r="I81" s="1"/>
       <c r="J81" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K81" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M81" s="2" t="b">
         <v>1</v>
@@ -3394,7 +3406,7 @@
     <row r="82" customFormat="1" ht="27" spans="1:13">
       <c r="A82" s="1"/>
       <c r="B82" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C82" s="1">
         <v>9</v>
@@ -3404,7 +3416,7 @@
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G82" s="2"/>
       <c r="H82" s="1" t="b">
@@ -3412,10 +3424,10 @@
       </c>
       <c r="I82" s="1"/>
       <c r="J82" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K82" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M82" s="2" t="b">
         <v>1</v>
@@ -3424,7 +3436,7 @@
     <row r="83" customFormat="1" spans="1:13">
       <c r="A83" s="1"/>
       <c r="B83" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C83" s="1">
         <v>9</v>
@@ -3434,7 +3446,7 @@
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="1" t="b">
@@ -3442,10 +3454,10 @@
       </c>
       <c r="I83" s="1"/>
       <c r="J83" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K83" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M83" s="2" t="b">
         <v>1</v>
@@ -3454,7 +3466,7 @@
     <row r="84" customFormat="1" spans="1:13">
       <c r="A84" s="1"/>
       <c r="B84" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C84" s="1">
         <v>9</v>
@@ -3464,7 +3476,7 @@
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G84" s="2"/>
       <c r="H84" s="1" t="b">
@@ -3472,10 +3484,10 @@
       </c>
       <c r="I84" s="1"/>
       <c r="J84" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K84" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M84" s="2" t="b">
         <v>1</v>
@@ -3509,25 +3521,25 @@
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C87" s="1">
         <v>10</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H87" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K87" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M87" t="b">
         <v>1</v>
@@ -3548,139 +3560,139 @@
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C90" s="1">
         <v>99</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H90" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C91" s="1">
         <v>99</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H91" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C92" s="1">
         <v>99</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H92" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C93" s="1">
         <v>99</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H93" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C95" s="1">
         <v>99</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H95" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K95" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C96" s="1">
         <v>99</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H96" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K96" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C97" s="1">
         <v>99</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H97" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K97" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="107" customFormat="1" spans="1:10">

--- a/GunfireDungeon_Godot/excel/ActivityBase.xlsx
+++ b/GunfireDungeon_Godot/excel/ActivityBase.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="246">
   <si>
     <t>Id</t>
   </si>
@@ -779,6 +779,18 @@
   </si>
   <si>
     <t>res://resource/sprite/ui/commonIcon/Gold_1.png</t>
+  </si>
+  <si>
+    <t>hit_number</t>
+  </si>
+  <si>
+    <t>伤害数字</t>
+  </si>
+  <si>
+    <t>造成或者受到伤害后显示的数字</t>
+  </si>
+  <si>
+    <t>res://prefab/effect/common/HitNumber.tscn</t>
   </si>
 </sst>
 </file>
@@ -1780,11 +1792,11 @@
   <dimension ref="A1:M130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="G83" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomRight" activeCell="J99" sqref="J99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3693,6 +3705,26 @@
       </c>
       <c r="K97" t="s">
         <v>241</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C99" s="1">
+        <v>99</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="H99" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="107" customFormat="1" spans="1:10">
